--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/36 от 04-12-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7332,13 +7330,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9137,26 +9135,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9261,7 +9259,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-0.0002899999999999986</v>
+        <v>0.0003499999999999961</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-0.0002899999999999986</v>
+        <v>0.0003499999999999961</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>-0.001019999999999993</v>
+        <v>0.01800629997386594</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0003884825226885896</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>-0.001524999999999999</v>
+        <v>0.02673294728280368</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0003529075483260601</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00803535572724047</v>
+        <v>0.008384719019729189</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005352886140296694</v>
+        <v>0.000558977075622436</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00803535572724047</v>
+        <v>0.008384719019729189</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005352886140296694</v>
+        <v>0.000558977075622436</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02016705597072985</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000443386813613901</v>
+        <v>0.001165447568065769</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02618737693009343</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0003711735659205086</v>
+        <v>0.001080329229569573</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9361,26 +9359,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03894801692641453</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00118764325075152</v>
+        <v>0.001761748543486426</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.05772701992400936</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001159917393501589</v>
+        <v>0.001760893082798022</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01801197670638977</v>
+        <v>0.0179270268564246</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01801197670638977</v>
+        <v>0.0179270268564246</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03830413219715273</v>
+        <v>0.03870719836092418</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00220223854567416</v>
+        <v>0.002642622815229639</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05899078312812805</v>
+        <v>0.05702177726311458</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002201820567926674</v>
+        <v>0.002641339624197033</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01868177379380177</v>
+        <v>0.01888715146351441</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01868177379380177</v>
+        <v>0.01888715146351441</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0408589601823941</v>
+        <v>0.0423265119635774</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00293631806089888</v>
+        <v>0.003523497086972852</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06228791946471879</v>
+        <v>0.05988579481370793</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002935760757235565</v>
+        <v>0.003521786165596044</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005352886140296694</v>
+        <v>0.000558977075622436</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00803535572724047</v>
+        <v>0.008384719019729189</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01962369635429125</v>
+        <v>0.02053542152906777</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01962369635429125</v>
+        <v>0.02053542152906777</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.042736138228406</v>
+        <v>0.04241238717557713</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.0036703975761236</v>
+        <v>0.004404371358716064</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06497816238458898</v>
+        <v>0.06863297493000531</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003669700946544456</v>
+        <v>0.004402232706995054</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02030571035225344</v>
+        <v>0.02054994009858879</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02030571035225344</v>
+        <v>0.02054994009858879</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04443162214993465</v>
+        <v>0.04477274974994513</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00440447709134832</v>
+        <v>0.005285245630459279</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0656788681980508</v>
+        <v>0.06789083447262845</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004403641135853348</v>
+        <v>0.005282679248394066</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0209559308120448</v>
+        <v>0.02186130900003729</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0209559308120448</v>
+        <v>0.02186130900003729</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04577006213332888</v>
+        <v>0.04705497594368557</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005138556606573041</v>
+        <v>0.006166119902202491</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06854346080290319</v>
+        <v>0.07362957843617862</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00513758132516224</v>
+        <v>0.006163125789793077</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02256651438164214</v>
+        <v>0.0231105025667209</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02256651438164214</v>
+        <v>0.0231105025667209</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04595053569038499</v>
+        <v>0.04897731674703135</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00587263612179776</v>
+        <v>0.007046994173945703</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07023922240647634</v>
+        <v>0.07441939147972665</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00587152151447113</v>
+        <v>0.007043572331192088</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02291804863416975</v>
+        <v>0.02344735765774486</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02291804863416975</v>
+        <v>0.02344735765774486</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04964545907863452</v>
+        <v>0.04759724550013955</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00660671563702248</v>
+        <v>0.007927868445688917</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07475152110525818</v>
+        <v>0.07666242932626477</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006605461703780022</v>
+        <v>0.0079240188725911</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02348438613941251</v>
+        <v>0.02403216262274344</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02348438613941251</v>
+        <v>0.02403216262274344</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04804377073828159</v>
+        <v>0.0473844633024032</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0073407951522472</v>
+        <v>0.008808742717432129</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07364030423107487</v>
+        <v>0.07228454325730721</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007339401893088912</v>
+        <v>0.008804465413990109</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02346520208236429</v>
+        <v>0.02473668644684719</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02346520208236429</v>
+        <v>0.02473668644684719</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0519034176401931</v>
+        <v>0.04905460149552499</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008074874667471921</v>
+        <v>0.009689616989175342</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07547563211154029</v>
+        <v>0.07786265390425007</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008073342082397805</v>
+        <v>0.009684911955389121</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02478386855903246</v>
+        <v>0.02392877588406693</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02478386855903246</v>
+        <v>0.02392877588406693</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05167975980459738</v>
+        <v>0.05139241982230114</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00880895418269664</v>
+        <v>0.01057049126091856</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08103990091258761</v>
+        <v>0.07459887020307793</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008807282271706697</v>
+        <v>0.01056535849678813</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02434807205754788</v>
+        <v>0.02415016591245461</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02434807205754788</v>
+        <v>0.02415016591245461</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05097282567458264</v>
+        <v>0.05351858313649091</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009543033697921361</v>
+        <v>0.01145136553266177</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08191226511311922</v>
+        <v>0.07931710170240119</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009541222461015587</v>
+        <v>0.01144580503818714</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0255101668846322</v>
+        <v>0.0257598876578394</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0255101668846322</v>
+        <v>0.0257598876578394</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05208593023389071</v>
+        <v>0.05453892833917826</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01027711321314608</v>
+        <v>0.01233223980440498</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0794513844093358</v>
+        <v>0.08192330340999437</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01027516265032448</v>
+        <v>0.01232625157958615</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02602816455498902</v>
+        <v>0.02490894660662826</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02602816455498902</v>
+        <v>0.02490894660662826</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05292075999336701</v>
+        <v>0.05135275006292567</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0110111927283708</v>
+        <v>0.0132131140761482</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08344647518846593</v>
+        <v>0.08171812054101779</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01100910283963337</v>
+        <v>0.01320669812098517</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02604118570177275</v>
+        <v>0.02560750340578372</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02604118570177275</v>
+        <v>0.02560750340578372</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05377248001968868</v>
+        <v>0.0556351550959529</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01174527224359552</v>
+        <v>0.01409398834789141</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08168837732082618</v>
+        <v>0.08209650656005463</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01174304302894226</v>
+        <v>0.01408714466238418</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02633436006383386</v>
+        <v>0.02646092320392764</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02633436006383386</v>
+        <v>0.02646092320392764</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0562250103675338</v>
+        <v>0.05399855667204681</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01247935175882024</v>
+        <v>0.01497486261963462</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08651904048186665</v>
+        <v>0.08142466554735822</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01247698321825115</v>
+        <v>0.01496759120378319</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02714462344833404</v>
+        <v>0.02661602464343783</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02714462344833404</v>
+        <v>0.02661602464343783</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05672501699276433</v>
+        <v>0.05555312813218524</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01321343127404496</v>
+        <v>0.01585573689137783</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08700018770194778</v>
+        <v>0.08483582265338113</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01321092340756004</v>
+        <v>0.0158480377451822</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02764313355804514</v>
+        <v>0.02653100059978838</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02764313355804514</v>
+        <v>0.02653100059978838</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05548257628514353</v>
+        <v>0.0564249348357222</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01394751078926968</v>
+        <v>0.01673661116312105</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08772859154029022</v>
+        <v>0.08466103969797606</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01394486359686893</v>
+        <v>0.01672848428658121</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02743010512159132</v>
+        <v>0.02736453300410575</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02743010512159132</v>
+        <v>0.02736453300410575</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05615986306189696</v>
+        <v>0.05586919950612582</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0146815903044944</v>
+        <v>0.01761748543486426</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08844694866881031</v>
+        <v>0.08433988145827592</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01467880378617782</v>
+        <v>0.01760893082798022</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02792263437563977</v>
+        <v>0.02731645329462534</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02792263437563977</v>
+        <v>0.02731645329462534</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05707332096324466</v>
+        <v>0.05720279920969196</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01541566981971912</v>
+        <v>0.01849835970660747</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0869618545052866</v>
+        <v>0.08131161122810254</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01541274397548672</v>
+        <v>0.01848937736937923</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02817776512042529</v>
+        <v>0.02615611467248262</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02817776512042529</v>
+        <v>0.02615611467248262</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05805560016474515</v>
+        <v>0.0549949268109336</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01614974933494384</v>
+        <v>0.01937923397835068</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08972494301863398</v>
+        <v>0.08606239477059124</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01614668416479561</v>
+        <v>0.01936982391077824</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02808268920890601</v>
+        <v>0.02659016165493545</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02808268920890601</v>
+        <v>0.02659016165493545</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05717322614597989</v>
+        <v>0.05529946225686974</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01688382885016856</v>
+        <v>0.0202601082500939</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0881231727188887</v>
+        <v>0.0870312413017012</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0168806243541045</v>
+        <v>0.02025027045217725</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10191,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02820284086585079</v>
+        <v>0.02763335691082287</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02820284086585079</v>
+        <v>0.02763335691082287</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05803320129109008</v>
+        <v>0.05445388035764562</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01761790836539328</v>
+        <v>0.02114098252183711</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0901508406348398</v>
+        <v>0.08811980292716004</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01761456454341339</v>
+        <v>0.02113071699357626</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02862173812349086</v>
+        <v>0.02731151817446968</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02862173812349086</v>
+        <v>0.02731151817446968</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05960491692560521</v>
+        <v>0.05546397012055648</v>
       </c>
       <c r="M90" t="n">
-        <v>0.018351987880618</v>
+        <v>0.02202185679358033</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09027181936555284</v>
+        <v>0.08776191691537932</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01834850473272228</v>
+        <v>0.02201116353497528</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.028621546544183</v>
+        <v>0.02691526313232508</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="J91" t="n">
-        <v>0.028621546544183</v>
+        <v>0.02691526313232508</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05897484681167209</v>
+        <v>0.05726854982161586</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01908606739584272</v>
+        <v>0.02290273106532354</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09008041731487409</v>
+        <v>0.08963702463541451</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01908244492203117</v>
+        <v>0.02289161007637429</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02853695274708916</v>
+        <v>0.02788744913781543</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02853695274708916</v>
+        <v>0.02788744913781543</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06064636739299906</v>
+        <v>0.05727636883653506</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01982014691106744</v>
+        <v>0.02378360533706675</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09100028783872777</v>
+        <v>0.08708960047760078</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01981638511134006</v>
+        <v>0.02377205661777329</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02880594153918439</v>
+        <v>0.02816654189326898</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02880594153918439</v>
+        <v>0.02816654189326898</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05876032440962825</v>
+        <v>0.05841036996476603</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02055422642629216</v>
+        <v>0.02466447960880996</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09240386643798709</v>
+        <v>0.08478899762616193</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02055032530064896</v>
+        <v>0.02465250315917231</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0287129680040769</v>
+        <v>0.0278512412388795</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0287129680040769</v>
+        <v>0.0278512412388795</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05981953055516148</v>
+        <v>0.05875445960681339</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02128830594151688</v>
+        <v>0.02554535388055318</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08957507981946827</v>
+        <v>0.08606409706102253</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02128426548995785</v>
+        <v>0.02553294970057132</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02881815109265509</v>
+        <v>0.02818583790020812</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02881815109265509</v>
+        <v>0.02818583790020812</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06128404386348096</v>
+        <v>0.05745056011813107</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0220223854567416</v>
+        <v>0.02642622815229639</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09351304341124927</v>
+        <v>0.08737886586690735</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02201820567926674</v>
+        <v>0.02641339624197033</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0295738996773226</v>
+        <v>0.02844062231408173</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0295738996773226</v>
+        <v>0.02844062231408173</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0602046393604678</v>
+        <v>0.05965137808941795</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02275646497196632</v>
+        <v>0.0273071024240396</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09150970303487088</v>
+        <v>0.08934962228406479</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02275214586857563</v>
+        <v>0.02729384278336934</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02961382131238265</v>
+        <v>0.02806888203474664</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02961382131238265</v>
+        <v>0.02806888203474664</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06010957082896867</v>
+        <v>0.05733951245099725</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02349054448719104</v>
+        <v>0.02818797669578281</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09316110677213296</v>
+        <v>0.08872867064236206</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02348608605788452</v>
+        <v>0.02817428932476835</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02929030467450575</v>
+        <v>0.02918654584719944</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02929030467450575</v>
+        <v>0.02918654584719944</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06089073868369971</v>
+        <v>0.05892710780620655</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02422462400241576</v>
+        <v>0.02906885096752603</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09319204865233088</v>
+        <v>0.09018896119223985</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02422002624719341</v>
+        <v>0.02905473586616737</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02989273589476794</v>
+        <v>0.02839417623040894</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02989273589476794</v>
+        <v>0.02839417623040894</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06025736549889563</v>
+        <v>0.05967677044717423</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02495870351764048</v>
+        <v>0.02994972523926924</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0906280680382221</v>
+        <v>0.08617538173933487</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0249539664365023</v>
+        <v>0.02993518240756637</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03025355853626177</v>
+        <v>0.02803263231761317</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03025355853626177</v>
+        <v>0.02803263231761317</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06039872508836966</v>
+        <v>0.05910276407550105</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0256927830328652</v>
+        <v>0.03083059951101245</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09515618527851644</v>
+        <v>0.08745823823165905</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02568790662581119</v>
+        <v>0.03081562894896538</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02967489554145973</v>
+        <v>0.02884661598750686</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02967489554145973</v>
+        <v>0.02884661598750686</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06210698327733361</v>
+        <v>0.05875921248381416</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02642686254808992</v>
+        <v>0.03171147378275567</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09278031626363303</v>
+        <v>0.08697195195925572</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02642184681512009</v>
+        <v>0.0316960754903644</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02982824466417476</v>
+        <v>0.02861096310386974</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02982824466417476</v>
+        <v>0.02861096310386974</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06337222874034706</v>
+        <v>0.05922942135109208</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02716094206331464</v>
+        <v>0.03259234805449888</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09558694121183497</v>
+        <v>0.08886797045490646</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02715578700442898</v>
+        <v>0.0325765220317634</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0298510585780724</v>
+        <v>0.02844981927471339</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0298510585780724</v>
+        <v>0.02844981927471339</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06095760786674151</v>
+        <v>0.05753062994177829</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02789502157853936</v>
+        <v>0.03347322232624209</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09339032729694519</v>
+        <v>0.09239818017441798</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02788972719373787</v>
+        <v>0.03345696857316242</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03043289355621288</v>
+        <v>0.02988743727510687</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03043289355621288</v>
+        <v>0.02988743727510687</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06252936503996967</v>
+        <v>0.06183623628429596</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02862910109376408</v>
+        <v>0.03435409659798531</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09190369740676096</v>
+        <v>0.09228124350762873</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02862366738304676</v>
+        <v>0.03433741511456143</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03062837440825297</v>
+        <v>0.02928207896709491</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03062837440825297</v>
+        <v>0.02928207896709491</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06122436846061724</v>
+        <v>0.06012742431768389</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0293631806089888</v>
+        <v>0.03523497086972852</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09663019480859186</v>
+        <v>0.09166001598089263</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02935760757235565</v>
+        <v>0.03521786165596043</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03052857980792685</v>
+        <v>0.02959497741826385</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03052857980792685</v>
+        <v>0.02959497741826385</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0640638074189675</v>
+        <v>0.06075603936690549</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03009726012421352</v>
+        <v>0.03611584514147173</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09377401304532645</v>
+        <v>0.09308246533330827</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03009154776166454</v>
+        <v>0.03609830819735945</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03041595066221744</v>
+        <v>0.02940748522387794</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03041595066221744</v>
+        <v>0.02940748522387794</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06277399380182647</v>
+        <v>0.05905212790338904</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03083133963943824</v>
+        <v>0.03699671941321495</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09323728389534552</v>
+        <v>0.0909541450915336</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03082548795097344</v>
+        <v>0.03697875473875847</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03033092252294778</v>
+        <v>0.02897654754870128</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03033092252294778</v>
+        <v>0.02897654754870128</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06429478192696203</v>
+        <v>0.05879434564170599</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03156541915466296</v>
+        <v>0.03787759368495815</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09575792047486026</v>
+        <v>0.0929392132223662</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03155942814028232</v>
+        <v>0.03785920128015747</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03048553906773226</v>
+        <v>0.02889353699181527</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03048553906773226</v>
+        <v>0.02889353699181527</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06255227690307075</v>
+        <v>0.06178565779475453</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03229949866988768</v>
+        <v>0.03875846795670137</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09364378372668031</v>
+        <v>0.09122224936913326</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03229336832959122</v>
+        <v>0.03873964782155648</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03042531616325453</v>
+        <v>0.02912178460804921</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03042531616325453</v>
+        <v>0.02912178460804921</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06399541853469148</v>
+        <v>0.06028388447700198</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03303357818511241</v>
+        <v>0.03963934222844458</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0955354477756778</v>
+        <v>0.09376824598760386</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03302730851890011</v>
+        <v>0.03962009436295549</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03136879442797555</v>
+        <v>0.02944398493832057</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03136879442797555</v>
+        <v>0.02944398493832057</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0632091420024202</v>
+        <v>0.06267959016763824</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03376765770033712</v>
+        <v>0.0405202165001878</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09539111912687198</v>
+        <v>0.0926877441242282</v>
       </c>
       <c r="O111" t="n">
-        <v>0.033761248708209</v>
+        <v>0.0405005409043545</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03066813381984254</v>
+        <v>0.02948651324731706</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03066813381984254</v>
+        <v>0.02948651324731706</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06517148169129894</v>
+        <v>0.06079966911256887</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03450173721556184</v>
+        <v>0.04140109077193101</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09702043971146002</v>
+        <v>0.09253139041134378</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03449518889751789</v>
+        <v>0.04138098744575352</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03101059677081666</v>
+        <v>0.02926326568692891</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03101059677081666</v>
+        <v>0.02926326568692891</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06407965256561254</v>
+        <v>0.0601925358217465</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03523581673078656</v>
+        <v>0.04228196504367423</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09631667398165183</v>
+        <v>0.08989562247842187</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03522912908682679</v>
+        <v>0.04226143398715253</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03046901982729461</v>
+        <v>0.02982086013068067</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03046901982729461</v>
+        <v>0.02982086013068067</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06450734957170562</v>
+        <v>0.06057610525275434</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03596989624601128</v>
+        <v>0.04316283931541744</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09801794003985298</v>
+        <v>0.09608948200175227</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03596306927613567</v>
+        <v>0.04314188052855154</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03069102728766679</v>
+        <v>0.02983475287353046</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03069102728766679</v>
+        <v>0.02983475287353046</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06457390724986781</v>
+        <v>0.06266094761271612</v>
       </c>
       <c r="M115" t="n">
-        <v>0.036703975761236</v>
+        <v>0.04404371358716065</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09735744867524271</v>
+        <v>0.09455330394351075</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03669700946544457</v>
+        <v>0.04402232706995055</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03078404436388278</v>
+        <v>0.02987127422802098</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03078404436388278</v>
+        <v>0.02987127422802098</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06399084957268833</v>
+        <v>0.06047387940747651</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03743805527646072</v>
+        <v>0.04492458785890386</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09395364875684459</v>
+        <v>0.09511883301858787</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03743094965475345</v>
+        <v>0.04490277361134955</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03156882126090432</v>
+        <v>0.02963854519911051</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03156882126090432</v>
+        <v>0.02963854519911051</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06590779483743739</v>
+        <v>0.06100570816060877</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03817213479168544</v>
+        <v>0.04580546213064707</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09906367432607938</v>
+        <v>0.09090992698843409</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03816488984406235</v>
+        <v>0.04578322015274857</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03160936720439604</v>
+        <v>0.03003758864808409</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03160936720439604</v>
+        <v>0.03003758864808409</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06378801916252844</v>
+        <v>0.06192471921203199</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03890621430691016</v>
+        <v>0.04668633640239029</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09693009708513156</v>
+        <v>0.09067166915541414</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03889883003337124</v>
+        <v>0.04666366669414759</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03134765667900488</v>
+        <v>0.03086538638303273</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03134765667900488</v>
+        <v>0.03086538638303273</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06507804912303911</v>
+        <v>0.05960820037300796</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03964029382213488</v>
+        <v>0.0475672106741335</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09621164634410584</v>
+        <v>0.09408723218764808</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03963277022268013</v>
+        <v>0.04754411323554659</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03093757518200758</v>
+        <v>0.03063155201386972</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03093757518200758</v>
+        <v>0.03063155201386972</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06671111788361939</v>
+        <v>0.06252813155072828</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0403743733373596</v>
+        <v>0.04844808494587671</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0993070196775912</v>
+        <v>0.09423524458414251</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04036671041198902</v>
+        <v>0.0484245597769456</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03178082147390543</v>
+        <v>0.02973012010399315</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03178082147390543</v>
+        <v>0.02973012010399315</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06525807842721218</v>
+        <v>0.06159256689291606</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04110845285258433</v>
+        <v>0.04932895921761993</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09806158527850256</v>
+        <v>0.09606853242327396</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04110065060129792</v>
+        <v>0.04930500631834461</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03159459649765241</v>
+        <v>0.03100884485451035</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03159459649765241</v>
+        <v>0.03100884485451035</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06415557682226453</v>
+        <v>0.06056647855531952</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04184253236780904</v>
+        <v>0.05020983348936314</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09632702866656589</v>
+        <v>0.09230927454788307</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0418345907906068</v>
+        <v>0.05018545285974362</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03113315406723266</v>
+        <v>0.02964444720928658</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03113315406723266</v>
+        <v>0.02964444720928658</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06429356120749971</v>
+        <v>0.06340684543728042</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04257661188303376</v>
+        <v>0.05109070776110635</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09802000989831272</v>
+        <v>0.09706509869293029</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0425685309799157</v>
+        <v>0.05106589940114264</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03211155972249759</v>
+        <v>0.02987905744344559</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03211155972249759</v>
+        <v>0.02987905744344559</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06643678541448317</v>
+        <v>0.06198869469375407</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04331069139825848</v>
+        <v>0.05197158203284957</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09765404867437955</v>
+        <v>0.0952320171340687</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04330247116922459</v>
+        <v>0.05194634594254165</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0312770009871028</v>
+        <v>0.02992916412002281</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0312770009871028</v>
+        <v>0.02992916412002281</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06694381772923197</v>
+        <v>0.0649184385448979</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0440447709134832</v>
+        <v>0.05285245630459278</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1006259510096666</v>
+        <v>0.09304272158227039</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04403641135853348</v>
+        <v>0.05282679248394066</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03132503690403579</v>
+        <v>0.0304426062046578</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03132503690403579</v>
+        <v>0.0304426062046578</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06642042827671135</v>
+        <v>0.06484585612336094</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04477885042870793</v>
+        <v>0.053733330576336</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09892525312076261</v>
+        <v>0.09643865338810892</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04477035154784237</v>
+        <v>0.05370723902533967</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03186474552734586</v>
+        <v>0.03029321428736612</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03186474552734586</v>
+        <v>0.03029321428736612</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06591280010154082</v>
+        <v>0.06210828877967581</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04551292994393264</v>
+        <v>0.0546142048480792</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09891468331381242</v>
+        <v>0.0942141548201218</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04550429173715126</v>
+        <v>0.05458768556673867</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03172583874304483</v>
+        <v>0.03097225036630129</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03172583874304483</v>
+        <v>0.03097225036630129</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06457280167453883</v>
+        <v>0.06449697407390467</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04624700945915736</v>
+        <v>0.05549507911982241</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09622596846839893</v>
+        <v>0.09394028766628626</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04623823192646015</v>
+        <v>0.0554681321081377</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03168862677117949</v>
+        <v>0.03009845909591297</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03168862677117949</v>
+        <v>0.03009845909591297</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.066097661431472</v>
+        <v>0.06421961198193482</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04698108897438208</v>
+        <v>0.05637595339156563</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09803867774683772</v>
+        <v>0.09707911623664173</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04697217211576904</v>
+        <v>0.05634857864953671</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03185339318392573</v>
+        <v>0.03073671689371882</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03185339318392573</v>
+        <v>0.03073671689371882</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06715328871040821</v>
+        <v>0.06268039097450345</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0477151684896068</v>
+        <v>0.05725682766330884</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09722812934123948</v>
+        <v>0.09333516633585071</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04770611230507794</v>
+        <v>0.05722902519093571</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03150014202948208</v>
+        <v>0.03069679375609727</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03150014202948208</v>
+        <v>0.03069679375609727</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06544160624651918</v>
+        <v>0.06258543013538403</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04844924800483152</v>
+        <v>0.05813770193505206</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09668957563890845</v>
+        <v>0.09297459771615058</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04844005249438682</v>
+        <v>0.05810947173233473</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0321703042721639</v>
+        <v>0.03156669762996257</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0321703042721639</v>
+        <v>0.03156669762996257</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06502647926772578</v>
+        <v>0.06313240624134925</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04918332752005624</v>
+        <v>0.05901857620679526</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09873557520749049</v>
+        <v>0.09847122234383049</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04917399268369572</v>
+        <v>0.05898991827373373</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03249874203443691</v>
+        <v>0.03049709992949633</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03249874203443691</v>
+        <v>0.03049709992949633</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06638195087819607</v>
+        <v>0.06325768007952981</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04991740703528096</v>
+        <v>0.05989945047853848</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1005162422839158</v>
+        <v>0.09411781942531089</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04990793287300461</v>
+        <v>0.05987036481513274</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03168084324545116</v>
+        <v>0.03077511283007366</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03168084324545116</v>
+        <v>0.03077511283007366</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06782860439885779</v>
+        <v>0.06223343888575342</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05065148655050569</v>
+        <v>0.06078032475028169</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09830809064467128</v>
+        <v>0.0951424950269229</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0506418730623135</v>
+        <v>0.06075081135653176</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03169118267165537</v>
+        <v>0.03170834019749645</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03169118267165537</v>
+        <v>0.03170834019749645</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06790028076115845</v>
+        <v>0.06510184062843902</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0513855660657304</v>
+        <v>0.06166119902202491</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09895596774602322</v>
+        <v>0.09757400505035474</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05137581325162239</v>
+        <v>0.06163125789793077</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03273731633073411</v>
+        <v>0.03081658900384808</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03273731633073411</v>
+        <v>0.03081658900384808</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06854836198976519</v>
+        <v>0.06611361469629293</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05211964558095512</v>
+        <v>0.06254207329376812</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1009233058514768</v>
+        <v>0.09633548446302503</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05210975344093129</v>
+        <v>0.06251170443932978</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03163351296912002</v>
+        <v>0.03137739030104446</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03163351296912002</v>
+        <v>0.03137739030104446</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06666651178158647</v>
+        <v>0.06556015770329807</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05285372509617984</v>
+        <v>0.06342294756551134</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09917222322400221</v>
+        <v>0.09442868890912981</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05284369363024018</v>
+        <v>0.0633921509807288</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03225682842569653</v>
+        <v>0.03090073583304233</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03225682842569653</v>
+        <v>0.03090073583304233</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06867884317791681</v>
+        <v>0.06468175723268776</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05358780461140456</v>
+        <v>0.06430382183725454</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09917929663713676</v>
+        <v>0.09559617467623854</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05357763381954907</v>
+        <v>0.0642725975221278</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03289642967668524</v>
+        <v>0.03155864367392711</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03289642967668524</v>
+        <v>0.03155864367392711</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06768078048015819</v>
+        <v>0.06324985230609734</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05432188412662928</v>
+        <v>0.06518469610899776</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1003222930640928</v>
+        <v>0.09623640230979907</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05431157400885795</v>
+        <v>0.0651530440635268</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03206217729280207</v>
+        <v>0.03159324377430341</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03206217729280207</v>
+        <v>0.03159324377430341</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06668030013418716</v>
+        <v>0.06476888611199491</v>
       </c>
       <c r="M140" t="n">
-        <v>0.055055963641854</v>
+        <v>0.06606557038074097</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09779900940670605</v>
+        <v>0.09719711908732942</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05504551419816685</v>
+        <v>0.06603349060492583</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03252054896108968</v>
+        <v>0.03113846874987028</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03252054896108968</v>
+        <v>0.03113846874987028</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0662700101646283</v>
+        <v>0.06276998578796036</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05579004315707872</v>
+        <v>0.06694644465248419</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09845494124334286</v>
+        <v>0.09879805708875139</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05577945438747574</v>
+        <v>0.06691393714632483</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03194978591304071</v>
+        <v>0.0321806148660523</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03194978591304071</v>
+        <v>0.0321806148660523</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06731596591773012</v>
+        <v>0.06674835002275947</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05652412267230345</v>
+        <v>0.0678273189242274</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1020656585040273</v>
+        <v>0.1004746173188322</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05651339457678463</v>
+        <v>0.06779438368772384</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03242974262410295</v>
+        <v>0.03228613169788878</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03242974262410295</v>
+        <v>0.03228613169788878</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06859364742772028</v>
+        <v>0.06412856200151576</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05725820218752817</v>
+        <v>0.06870819319597062</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09745884252290177</v>
+        <v>0.09768700302907524</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05724733476609353</v>
+        <v>0.06867483022912287</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03234595256694428</v>
+        <v>0.03197856654253733</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03234595256694428</v>
+        <v>0.03197856654253733</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0681241794850018</v>
+        <v>0.06585775182941847</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05799228170275289</v>
+        <v>0.06958906746771382</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1030868957544633</v>
+        <v>0.09703510125686893</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05798127495540242</v>
+        <v>0.06955527677052187</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03190555966431731</v>
+        <v>0.03212848794488055</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03190555966431731</v>
+        <v>0.03212848794488055</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06663399039225315</v>
+        <v>0.0640900739332998</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0587263612179776</v>
+        <v>0.07046994173945703</v>
       </c>
       <c r="N145" t="n">
-        <v>0.101505264329628</v>
+        <v>0.1028121226931656</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0587152151447113</v>
+        <v>0.07043572331192087</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03294804150988881</v>
+        <v>0.03217999577266396</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03294804150988881</v>
+        <v>0.03217999577266396</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06777164080569484</v>
+        <v>0.06729672206744325</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05946044073320231</v>
+        <v>0.07135081601120025</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1010222236265912</v>
+        <v>0.09747788449726591</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0594491553340202</v>
+        <v>0.0713161698533199</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03254045457005221</v>
+        <v>0.03127067816936374</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03254045457005221</v>
+        <v>0.03127067816936374</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06701304519521295</v>
+        <v>0.066269640255185</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06019452024842704</v>
+        <v>0.07223169028294346</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09885360752358491</v>
+        <v>0.09975397745162529</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06018309552332909</v>
+        <v>0.0721966163947189</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03265552027824545</v>
+        <v>0.03174043345585757</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03265552027824545</v>
+        <v>0.03174043345585757</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06761117935104383</v>
+        <v>0.06750076071268277</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06092859976365176</v>
+        <v>0.07311256455468668</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1033092229725043</v>
+        <v>0.1017360873142473</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06091703571263798</v>
+        <v>0.0730770629361179</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03311711783104171</v>
+        <v>0.03123726761021774</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03311711783104171</v>
+        <v>0.03123726761021774</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06779526307978243</v>
+        <v>0.06370829822567722</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06166267927887648</v>
+        <v>0.07399343882642989</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09905336124333125</v>
+        <v>0.09907017075830649</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06165097590194688</v>
+        <v>0.07395750947751693</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03208611689985529</v>
+        <v>0.03178212206510977</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03208611689985529</v>
+        <v>0.03178212206510977</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06764954078588473</v>
+        <v>0.06446114872586689</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06239675879410121</v>
+        <v>0.07487431309817309</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1024589646525397</v>
+        <v>0.09967384334857138</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06238491609125576</v>
+        <v>0.07483795601891594</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03253858692692514</v>
+        <v>0.03281061520423705</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03253858692692514</v>
+        <v>0.03281061520423705</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06933459869956204</v>
+        <v>0.06632837728238891</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06313083830932592</v>
+        <v>0.07575518736991631</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09990972432487844</v>
+        <v>0.09916468184721716</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06311885628056464</v>
+        <v>0.07571840256031494</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03294215679072934</v>
+        <v>0.03174373882564953</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03294215679072934</v>
+        <v>0.03174373882564953</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06786810470117294</v>
+        <v>0.06506702135614956</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06386491782455064</v>
+        <v>0.07663606164165952</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1004554192940467</v>
+        <v>0.1015703557031945</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06385279646987355</v>
+        <v>0.07659884910171395</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03225763571900533</v>
+        <v>0.03280648338178449</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03225763571900533</v>
+        <v>0.03280648338178449</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06781133023323496</v>
+        <v>0.06603438288498065</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06459899733977537</v>
+        <v>0.07751693591340274</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1035753995727567</v>
+        <v>0.09791656790168224</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06458673665918244</v>
+        <v>0.07747929564311297</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03201281864987539</v>
+        <v>0.03278031956194351</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03201281864987539</v>
+        <v>0.03278031956194351</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0688104658111332</v>
+        <v>0.06567402452033563</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06533307685500009</v>
+        <v>0.07839781018514595</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1004242963443623</v>
+        <v>0.1004148479935287</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06532067684849133</v>
+        <v>0.07835974218451197</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0326578313034081</v>
+        <v>0.03226011357277891</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0326578313034081</v>
+        <v>0.03226011357277891</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06747516857591274</v>
+        <v>0.06897374899688336</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06606715637022481</v>
+        <v>0.07927868445688917</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09994111317224214</v>
+        <v>0.1040569205505334</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06605461703780022</v>
+        <v>0.07924018872591099</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03231212976609264</v>
+        <v>0.03272004315341961</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03231212976609264</v>
+        <v>0.03272004315341961</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06885896066768818</v>
+        <v>0.06664540536679103</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06680123588544952</v>
+        <v>0.08015955872863238</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1016167700388037</v>
+        <v>0.09787715671093872</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06678855722710911</v>
+        <v>0.08012063526731</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03289033294730102</v>
+        <v>0.03227292867897145</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03289033294730102</v>
+        <v>0.03227292867897145</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06685851855064812</v>
+        <v>0.06708385893122817</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06753531540067424</v>
+        <v>0.0810404330003756</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1000164337518414</v>
+        <v>0.1022394328672658</v>
       </c>
       <c r="O157" t="n">
-        <v>0.067522497416418</v>
+        <v>0.08100108180870901</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03292792313712557</v>
+        <v>0.03203732008087465</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03292792313712557</v>
+        <v>0.03203732008087465</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0684243694383396</v>
+        <v>0.06737785052452386</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06826939491589896</v>
+        <v>0.08192130727211881</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1047948735508984</v>
+        <v>0.0994586488540754</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0682564376057269</v>
+        <v>0.08188152835010802</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0329068207340375</v>
+        <v>0.03209749085406773</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0329068207340375</v>
+        <v>0.03209749085406773</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06920635541706671</v>
+        <v>0.06787061836820385</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06900347443112369</v>
+        <v>0.08280218154386203</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1031720173929411</v>
+        <v>0.1010085673297903</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06899037779503578</v>
+        <v>0.08276197489150704</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03281959934626802</v>
+        <v>0.03346768441128252</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03281959934626802</v>
+        <v>0.03346768441128252</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06803564849988095</v>
+        <v>0.06745790522002557</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0697375539463484</v>
+        <v>0.08368305581560524</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1026035454880921</v>
+        <v>0.09941893567065124</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06972431798434467</v>
+        <v>0.08364242143290604</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0324653607861963</v>
+        <v>0.03180557701741471</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0324653607861963</v>
+        <v>0.03180557701741471</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06746245937544221</v>
+        <v>0.065433164381828</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07047163346157312</v>
+        <v>0.08456393008734846</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09986671128032609</v>
+        <v>0.1037777447861216</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07045825817365357</v>
+        <v>0.08452286797430505</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03298602505209203</v>
+        <v>0.03265306823747384</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03298602505209203</v>
+        <v>0.03265306823747384</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07000617493023914</v>
+        <v>0.06559501564992481</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07120571297679784</v>
+        <v>0.08544480435909166</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1040237198050148</v>
+        <v>0.09897413488285178</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07119219836296246</v>
+        <v>0.08540331451570407</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03289861786894835</v>
+        <v>0.03344082232030614</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03289861786894835</v>
+        <v>0.03344082232030614</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07000326014675626</v>
+        <v>0.06700906297717818</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07193979249202256</v>
+        <v>0.08632567863083487</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1038220017889866</v>
+        <v>0.09834897124905984</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07192613855227134</v>
+        <v>0.08628376105710307</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03283628544906149</v>
+        <v>0.0333267116148267</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03283628544906149</v>
+        <v>0.0333267116148267</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0697007198171819</v>
+        <v>0.06557852220445018</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07267387200724729</v>
+        <v>0.08720655290257809</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1038101967408189</v>
+        <v>0.1021428369400935</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07266007874158023</v>
+        <v>0.08716420759850207</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03260702291952232</v>
+        <v>0.03239614376127771</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03260702291952232</v>
+        <v>0.03239614376127771</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06700269179855328</v>
+        <v>0.06834047154239045</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07340795152247201</v>
+        <v>0.0880874271743213</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1027212529333802</v>
+        <v>0.1050134550915982</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07339401893088913</v>
+        <v>0.0880446541399011</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03280374537943732</v>
+        <v>0.03322559133938233</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03280374537943732</v>
+        <v>0.03322559133938233</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06908842559456471</v>
+        <v>0.06910316269414943</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07414203103769673</v>
+        <v>0.08896830144606452</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1023808878342005</v>
+        <v>0.1047408833001487</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07412795912019803</v>
+        <v>0.08892510068130011</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03261679960306836</v>
+        <v>0.03302370064852886</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03261679960306836</v>
+        <v>0.03302370064852886</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06800811343706689</v>
+        <v>0.0675304320390856</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07487611055292144</v>
+        <v>0.08984917571780772</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1024142194363583</v>
+        <v>0.1050480199527076</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0748618993095069</v>
+        <v>0.08980554722269911</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03300580955619253</v>
+        <v>0.03302118247984938</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03300580955619253</v>
+        <v>0.03302118247984938</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06840542421303045</v>
+        <v>0.06983049710557265</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07561019006814616</v>
+        <v>0.09073004998955093</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1027388583405544</v>
+        <v>0.1003000773199471</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07559583949881581</v>
+        <v>0.09068599376409814</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03344526698102993</v>
+        <v>0.03332502239718776</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03344526698102993</v>
+        <v>0.03332502239718776</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06990367474423287</v>
+        <v>0.07024014217142663</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07634426958337089</v>
+        <v>0.09161092426129415</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1008289631675728</v>
+        <v>0.1038810244407021</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0763297796881247</v>
+        <v>0.09156644030549714</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03328445704052037</v>
+        <v>0.03246344643039573</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03328445704052037</v>
+        <v>0.03246344643039573</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06978746354662163</v>
+        <v>0.06672543039062889</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07707834909859561</v>
+        <v>0.09249179853303736</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1017097703922553</v>
+        <v>0.1060563091967285</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07706371987743359</v>
+        <v>0.09244688684689614</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03278120020807015</v>
+        <v>0.03250756802483724</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03278120020807015</v>
+        <v>0.03250756802483724</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06926024451388743</v>
+        <v>0.07023105059476659</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07781242861382032</v>
+        <v>0.09337267280478058</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1033232775840999</v>
+        <v>0.1019834665113226</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07779766006674248</v>
+        <v>0.09332733338829517</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03296265718521595</v>
+        <v>0.03330853317783951</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03296265718521595</v>
+        <v>0.03330853317783951</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06903425598550891</v>
+        <v>0.06821161301654366</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07854650812904504</v>
+        <v>0.09425354707652379</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1034573476190771</v>
+        <v>0.1036972720602573</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07853160025605137</v>
+        <v>0.09420777992969417</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0337316052183645</v>
+        <v>0.03372580271899862</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0337316052183645</v>
+        <v>0.03372580271899862</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07050248309029666</v>
+        <v>0.06942608616019486</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07928058764426976</v>
+        <v>0.095134421348267</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1036768396353456</v>
+        <v>0.1021117192349976</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07926554044536026</v>
+        <v>0.09508822647109318</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03337826075109714</v>
+        <v>0.03394244929695098</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03337826075109714</v>
+        <v>0.03394244929695098</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06970645483162075</v>
+        <v>0.06940776115368258</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08001466715949448</v>
+        <v>0.09601529562001021</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1026124752599931</v>
+        <v>0.1027869946135149</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07999948063466915</v>
+        <v>0.09596867301249219</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03376338758994092</v>
+        <v>0.03300733993209125</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03376338758994092</v>
+        <v>0.03300733993209125</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07007098583937901</v>
+        <v>0.06634498085155019</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08074874667471921</v>
+        <v>0.09689616989175343</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1032719562838358</v>
+        <v>0.1032215199306016</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08073342082397804</v>
+        <v>0.09684911955389121</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03344449172436501</v>
+        <v>0.03402288285376344</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03344449172436501</v>
+        <v>0.03402288285376344</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06945103729876662</v>
+        <v>0.06855136944241597</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08148282618994393</v>
+        <v>0.09777704416349664</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1056534542197431</v>
+        <v>0.1015664378443014</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08146736101328693</v>
+        <v>0.09772956609529021</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03313438236403636</v>
+        <v>0.03279285685549438</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03313438236403636</v>
+        <v>0.03279285685549438</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06981604826571455</v>
+        <v>0.07063799109118296</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08221690570516865</v>
+        <v>0.09865791843523986</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1028239288834312</v>
+        <v>0.1030086000688808</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08220130120259583</v>
+        <v>0.09861001263668923</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03386964248004379</v>
+        <v>0.03280443908161072</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03386964248004379</v>
+        <v>0.03280443908161072</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06843328474941238</v>
+        <v>0.066955318015754</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08295098522039336</v>
+        <v>0.09953879270698307</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1041691638560051</v>
+        <v>0.1045839665076605</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08293524139190471</v>
+        <v>0.09949045917808824</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03309893585176941</v>
+        <v>0.03423564146526653</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03309893585176941</v>
+        <v>0.03423564146526653</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0703528950827495</v>
+        <v>0.06786546427388362</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08368506473561808</v>
+        <v>0.1004196669787263</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1035074766766648</v>
+        <v>0.1043377510172326</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0836691815812136</v>
+        <v>0.1003709057194872</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03349253602705891</v>
+        <v>0.0330262346642165</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03349253602705891</v>
+        <v>0.0330262346642165</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06822745970185137</v>
+        <v>0.07114330370148067</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08441914425084281</v>
+        <v>0.1013005412504695</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1051863009050464</v>
+        <v>0.1075467021801131</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0844031217705225</v>
+        <v>0.1012513522608863</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03361013547509585</v>
+        <v>0.03330294439682634</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03361013547509585</v>
+        <v>0.03330294439682634</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07005482714996175</v>
+        <v>0.07110095121821733</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08515322376606753</v>
+        <v>0.1021814155222127</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1048549505206442</v>
+        <v>0.1035629139025512</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08513706195983139</v>
+        <v>0.1021317988022853</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03425373928034127</v>
+        <v>0.03359399655068815</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03425373928034127</v>
+        <v>0.03359399655068815</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06930764504051773</v>
+        <v>0.07098587309379117</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08588730328129224</v>
+        <v>0.1030622897939559</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1042762819837733</v>
+        <v>0.1062758988770133</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08587100214914027</v>
+        <v>0.1030122453436843</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03309636750354948</v>
+        <v>0.03412781484143888</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03309636750354948</v>
+        <v>0.03412781484143888</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07109042133162771</v>
+        <v>0.06866605481803012</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08662138279651696</v>
+        <v>0.1039431640656991</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1042290312051111</v>
+        <v>0.1084725488535889</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08660494233844918</v>
+        <v>0.1038926918850833</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03388337433546729</v>
+        <v>0.03379111179372714</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03388337433546729</v>
+        <v>0.03379111179372714</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06887460402132928</v>
+        <v>0.06913786213888207</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08735546231174168</v>
+        <v>0.1048240383374423</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1048209321495474</v>
+        <v>0.1043430691890148</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08733888252775807</v>
+        <v>0.1047731384264823</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03379988027411467</v>
+        <v>0.03392058340382638</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03379988027411467</v>
+        <v>0.03392058340382638</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.068052709594771</v>
+        <v>0.06857287048101451</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08808954182696641</v>
+        <v>0.1057049126091856</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1032633265442298</v>
+        <v>0.1016477576986273</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08807282271706696</v>
+        <v>0.1056535849678813</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03358825050100801</v>
+        <v>0.03392370943206595</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03358825050100801</v>
+        <v>0.03392370943206595</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0695977309253967</v>
+        <v>0.06735126781968634</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08882362134219113</v>
+        <v>0.1065857868809288</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1071420281575973</v>
+        <v>0.105759603709886</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08880676290637585</v>
+        <v>0.1065340315092803</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03418371544443419</v>
+        <v>0.03383340622929086</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03418371544443419</v>
+        <v>0.03383340622929086</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06949093652725546</v>
+        <v>0.06943425525385513</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08955770085741585</v>
+        <v>0.107466661152672</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1067574454322311</v>
+        <v>0.1054356803911336</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08954070309568474</v>
+        <v>0.1074144780506793</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03332986112872514</v>
+        <v>0.03297897011073218</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03332986112872514</v>
+        <v>0.03297897011073218</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0705691183480345</v>
+        <v>0.06725716402052725</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09029178037264056</v>
+        <v>0.1083475354244152</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1045032307077768</v>
+        <v>0.1081108727411747</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09027464328499363</v>
+        <v>0.1082949245920783</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03363861829918378</v>
+        <v>0.03445438314511087</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03363861829918378</v>
+        <v>0.03445438314511087</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07095399968719918</v>
+        <v>0.06706447446163333</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09102585988786528</v>
+        <v>0.1092284096961584</v>
       </c>
       <c r="N189" t="n">
-        <v>0.104757191520517</v>
+        <v>0.1042154493558597</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09100858347430252</v>
+        <v>0.1091753711334773</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0337376847145819</v>
+        <v>0.03448485883012507</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0337376847145819</v>
+        <v>0.03448485883012507</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06865206868157878</v>
+        <v>0.07028120136235946</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09175993940309</v>
+        <v>0.1101092839679016</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1075725648801614</v>
+        <v>0.1085514485870611</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09174252366361141</v>
+        <v>0.1100558176748764</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03354778907485181</v>
+        <v>0.03448393637704623</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03354778907485181</v>
+        <v>0.03448393637704623</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07005096877374231</v>
+        <v>0.07075364883600022</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09249401891831473</v>
+        <v>0.1109901582396448</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1051542874524786</v>
+        <v>0.1059535414002939</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0924764638529203</v>
+        <v>0.1109362642162754</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03379653176547091</v>
+        <v>0.03289628560048977</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03379653176547091</v>
+        <v>0.03289628560048977</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07029773545648518</v>
+        <v>0.06957292879172541</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09322809843353945</v>
+        <v>0.1118710325113881</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1048890034883052</v>
+        <v>0.1023407767349178</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0932104040422292</v>
+        <v>0.1118167107576744</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03387860908275768</v>
+        <v>0.03369713433842605</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03387860908275768</v>
+        <v>0.03369713433842605</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06866879878909926</v>
+        <v>0.06804736174855613</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09396217794876416</v>
+        <v>0.1127519067831313</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1056000444498354</v>
+        <v>0.1073675078113794</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09394434423153808</v>
+        <v>0.1126971572990734</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03402534157427806</v>
+        <v>0.03364551073858263</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03402534157427806</v>
+        <v>0.03364551073858263</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07145638574337793</v>
+        <v>0.067635172094208</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09469625746398888</v>
+        <v>0.1136327810548745</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1063157720824965</v>
+        <v>0.1066338856810414</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09467828442084697</v>
+        <v>0.1135776038404724</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03326041783984429</v>
+        <v>0.03422062413385581</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03326041783984429</v>
+        <v>0.03422062413385581</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06996665417431994</v>
+        <v>0.06897925721390552</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0954303369792136</v>
+        <v>0.1145136553266177</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1038772002007391</v>
+        <v>0.1049516008333798</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09541222461015587</v>
+        <v>0.1144580503818714</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03377322450193224</v>
+        <v>0.03326091299319042</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03377322450193224</v>
+        <v>0.03326091299319042</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07151979150362472</v>
+        <v>0.06818850539272345</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09616441649443833</v>
+        <v>0.1153945295983609</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1035859870862141</v>
+        <v>0.1056593584055328</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09614616479946476</v>
+        <v>0.1153384969232704</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03407115860457766</v>
+        <v>0.0332493336894807</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03407115860457766</v>
+        <v>0.0332493336894807</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06948839384346198</v>
+        <v>0.07044742541700158</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09689849600966305</v>
+        <v>0.1162754038701041</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1046138669234973</v>
+        <v>0.1032424020229271</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09688010498877364</v>
+        <v>0.1162189434646695</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03427568642165245</v>
+        <v>0.03436306189623189</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03427568642165245</v>
+        <v>0.03436306189623189</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.068959567636697</v>
+        <v>0.06833849063674877</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09763257552488777</v>
+        <v>0.1171562781418473</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1067410996997392</v>
+        <v>0.1061913423005659</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09761404517808255</v>
+        <v>0.1170993900060685</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03430793138593216</v>
+        <v>0.03437937762993588</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03430793138593216</v>
+        <v>0.03437937762993588</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06890817886346476</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09836665504011248</v>
+        <v>0.1180371524135905</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1056742461531837</v>
+        <v>0.1045833431823063</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09834798536739144</v>
+        <v>0.1179798365474675</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03369009046543983</v>
+        <v>0.03438273687046293</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03369009046543983</v>
+        <v>0.03438273687046293</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07057750442694791</v>
+        <v>0.06863617446874887</v>
       </c>
       <c r="M200" t="n">
-        <v>0.0991007345553372</v>
+        <v>0.1189180266853338</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1066359327041979</v>
+        <v>0.1029901942023102</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09908192555670033</v>
+        <v>0.1188602830888665</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03428660911710051</v>
+        <v>0.03386808697413927</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03428660911710051</v>
+        <v>0.03386808697413927</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06939509406424624</v>
+        <v>0.07118904704706711</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09983481407056193</v>
+        <v>0.119798900957077</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1083174604493145</v>
+        <v>0.1063940936893329</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09981586574600922</v>
+        <v>0.1197407296302655</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03420761149020231</v>
+        <v>0.03335960647542137</v>
       </c>
       <c r="G202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03420761149020231</v>
+        <v>0.03335960647542137</v>
       </c>
       <c r="K202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06957515112087043</v>
+        <v>0.07030800512503826</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1005688935857866</v>
+        <v>0.1206797752288202</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1095209905211914</v>
+        <v>0.10659686875805</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1005498059353181</v>
+        <v>0.1206211761716645</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03433201220652334</v>
+        <v>0.03437104132386112</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03433201220652334</v>
+        <v>0.03437104132386112</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07001790084976472</v>
+        <v>0.07205107846840228</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1013029731010114</v>
+        <v>0.1215606495005634</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1083931990943136</v>
+        <v>0.1078260338666945</v>
       </c>
       <c r="O203" t="n">
-        <v>0.101283746124627</v>
+        <v>0.1215016227130635</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03451321923096332</v>
+        <v>0.03445436639482888</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03451321923096332</v>
+        <v>0.03445436639482888</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07073620040385215</v>
+        <v>0.06979039434379652</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1020370526162361</v>
+        <v>0.1224415237723066</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1065225337916449</v>
+        <v>0.1053448315573425</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1020176863139359</v>
+        <v>0.1223820692544625</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03366438431648085</v>
+        <v>0.03432094629798159</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03366438431648085</v>
+        <v>0.03432094629798159</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06991843885817212</v>
+        <v>0.06834444731011305</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1027711321314608</v>
+        <v>0.1233223980440498</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1083714417385965</v>
+        <v>0.1032913672440379</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1027516265032448</v>
+        <v>0.1232625157958615</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03452035508489561</v>
+        <v>0.03391560897026639</v>
       </c>
       <c r="G206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03452035508489561</v>
+        <v>0.03391560897026639</v>
       </c>
       <c r="K206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07034037070953936</v>
+        <v>0.07045468320498113</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1035052116466855</v>
+        <v>0.124203272315793</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1061217745054155</v>
+        <v>0.1056259446375437</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1034855666925537</v>
+        <v>0.1241429623372605</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03466149042858969</v>
+        <v>0.03336977836167766</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03466149042858969</v>
+        <v>0.03336977836167766</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06978513816247406</v>
+        <v>0.07118716073627623</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1042392911619102</v>
+        <v>0.1250841465875362</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1068449957187311</v>
+        <v>0.1080749260034449</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1042195068818626</v>
+        <v>0.1250234088786596</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03457602396866026</v>
+        <v>0.03353346284570936</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03457602396866026</v>
+        <v>0.03353346284570936</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07071189305288367</v>
       </c>
       <c r="M208" t="n">
-        <v>0.104973370677135</v>
+        <v>0.1259650208592794</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1067002872633683</v>
+        <v>0.1042758017038961</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1049534470711714</v>
+        <v>0.1259038554200586</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03435543687065133</v>
+        <v>0.03379203609185573</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03435543687065133</v>
+        <v>0.03379203609185573</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06957189158568466</v>
+        <v>0.07003876564138875</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1057074501923597</v>
+        <v>0.1268458951310227</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1096163291636947</v>
+        <v>0.108631356306986</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1056873872604804</v>
+        <v>0.1267843019614576</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03428596923952153</v>
+        <v>0.03467709097630738</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03428596923952153</v>
+        <v>0.03467709097630738</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07108904547344272</v>
+        <v>0.07118256497151246</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1064415297075844</v>
+        <v>0.1277267694027659</v>
       </c>
       <c r="N210" t="n">
-        <v>0.107971731949124</v>
+        <v>0.1093159739913543</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1064213274497892</v>
+        <v>0.1276647485028566</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0337207374216118</v>
+        <v>0.03322509919683832</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0337207374216118</v>
+        <v>0.03322509919683832</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06884023480909721</v>
+        <v>0.06906158874060919</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1071756092228091</v>
+        <v>0.1286076436745091</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1048062262621929</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1071552676390981</v>
+        <v>0.1285451950442556</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03377395879121799</v>
+        <v>0.03378936557006279</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03377395879121799</v>
+        <v>0.03378936557006279</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07037825293206781</v>
+        <v>0.07121273031866987</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1079096887380339</v>
+        <v>0.1294885179462523</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1096465259156608</v>
+        <v>0.1072686558526718</v>
       </c>
       <c r="O212" t="n">
-        <v>0.107889207828407</v>
+        <v>0.1294256415856546</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03442727219082528</v>
+        <v>0.03498403884895346</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03442727219082528</v>
+        <v>0.03498403884895346</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06870388242666298</v>
+        <v>0.07000218007421949</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1086437682532586</v>
+        <v>0.1303693922179955</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1084234887006206</v>
+        <v>0.1077015247539638</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1086231480177159</v>
+        <v>0.1303060881270536</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03417793483801526</v>
+        <v>0.0335522295664801</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03417793483801526</v>
+        <v>0.0335522295664801</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07194541909623423</v>
+        <v>0.06875957072975947</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1093778477684833</v>
+        <v>0.1312502664897387</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1083628307468871</v>
+        <v>0.1043880266515651</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1093570882070248</v>
+        <v>0.1311865346684526</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03470219138100281</v>
+        <v>0.03400046631382274</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03470219138100281</v>
+        <v>0.03400046631382274</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07105580144715817</v>
+        <v>0.07050337274966734</v>
       </c>
       <c r="M215" t="n">
-        <v>0.110111927283708</v>
+        <v>0.1321311407614819</v>
       </c>
       <c r="N215" t="n">
-        <v>0.108888387757316</v>
+        <v>0.1105951999547774</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1100910283963337</v>
+        <v>0.1320669812098517</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03396726665980811</v>
+        <v>0.0336745454175084</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03396726665980811</v>
+        <v>0.0336745454175084</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0692620137016039</v>
+        <v>0.07266132750533275</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1108460067989327</v>
+        <v>0.1330120150332252</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1085351514421003</v>
+        <v>0.1041125413859154</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1108249685856426</v>
+        <v>0.1329474277512507</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03511515138589402</v>
+        <v>0.03496956827298829</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03511515138589402</v>
+        <v>0.03496956827298829</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07017932192644263</v>
+        <v>0.06973857422284832</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1115800863141574</v>
+        <v>0.1338928893049684</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1087480896867118</v>
+        <v>0.103963014311008</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1115589087749515</v>
+        <v>0.1338278742926497</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03444779023068359</v>
+        <v>0.03398181396408827</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03444779023068359</v>
+        <v>0.03398181396408827</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07224599514995583</v>
+        <v>0.07182372260349615</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1123141658293822</v>
+        <v>0.1347737635767116</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1067102742356816</v>
+        <v>0.1046418700280448</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1122928489642604</v>
+        <v>0.1347083208340487</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03376159709701465</v>
+        <v>0.03355226498490983</v>
       </c>
       <c r="G219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03376159709701465</v>
+        <v>0.03355226498490983</v>
       </c>
       <c r="K219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07036205807929122</v>
+        <v>0.06989053086726738</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1130482453446069</v>
+        <v>0.1356546378484548</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1075479853269571</v>
+        <v>0.1067077603033043</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1130267891535693</v>
+        <v>0.1355887673754477</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03493657733718518</v>
+        <v>0.03435452773909313</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03493657733718518</v>
+        <v>0.03435452773909313</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0692845480358675</v>
+        <v>0.07020323765620406</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1137823248598316</v>
+        <v>0.136535512120198</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1080549194831629</v>
+        <v>0.1054324845611748</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1137607293428781</v>
+        <v>0.1364692139168467</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03363978421461224</v>
+        <v>0.03404406158024624</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03363978421461224</v>
+        <v>0.03404406158024624</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06945803328045136</v>
+        <v>0.07305116549343038</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1145164043750563</v>
+        <v>0.1374163863919412</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1078822224757641</v>
+        <v>0.1098239670640128</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1144946695321871</v>
+        <v>0.1373496604582457</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03372957908928259</v>
+        <v>0.03495894654897931</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03372957908928259</v>
+        <v>0.03495894654897931</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07080567635302157</v>
+        <v>0.07035597786140785</v>
       </c>
       <c r="M222" t="n">
-        <v>0.115250483890281</v>
+        <v>0.1382972606636844</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1083605037548964</v>
+        <v>0.1045905397965449</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1152286097214959</v>
+        <v>0.1382301069996447</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03458906279183215</v>
+        <v>0.0345759840725085</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03458906279183215</v>
+        <v>0.0345759840725085</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06985188205098744</v>
+        <v>0.06916191140739908</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1159845634055058</v>
+        <v>0.1391781349354276</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1082030979950317</v>
+        <v>0.1078141951427964</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1159625499108048</v>
+        <v>0.1391105535410437</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03417345020406261</v>
+        <v>0.03464365640677827</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03417345020406261</v>
+        <v>0.03464365640677827</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06962781316731545</v>
+        <v>0.06985032312581788</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1167186429207305</v>
+        <v>0.1400590092071709</v>
       </c>
       <c r="N224" t="n">
-        <v>0.108916802387129</v>
+        <v>0.1068434169020675</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1166964901001137</v>
+        <v>0.1399910000824428</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03432230722113941</v>
+        <v>0.03472797682630874</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03432230722113941</v>
+        <v>0.03472797682630874</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07033168353718625</v>
+        <v>0.07045789847619424</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1174527224359552</v>
+        <v>0.1409398834789141</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1059002682299569</v>
+        <v>0.1078689954617438</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1174304302894226</v>
+        <v>0.1408714466238417</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03452370587620349</v>
+        <v>0.03406907573597075</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03452370587620349</v>
+        <v>0.03406907573597075</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07146978429592943</v>
+        <v>0.07013716349496224</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1181868019511799</v>
+        <v>0.1418207577506573</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1052109868385303</v>
+        <v>0.1058552169032499</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1181643704787315</v>
+        <v>0.1417518931652408</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03494729680318519</v>
+        <v>0.03489580331294016</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03494729680318519</v>
+        <v>0.03489580331294016</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07134396112270955</v>
+        <v>0.0706691233741597</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1189208814664046</v>
+        <v>0.1427016320224005</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1073237019797521</v>
+        <v>0.1099797496714372</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1188983106680404</v>
+        <v>0.1426323397066398</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03396960298297164</v>
+        <v>0.03413454415584935</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03396960298297164</v>
+        <v>0.03413454415584935</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07170594512402229</v>
+        <v>0.0696484960052377</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1196549609816294</v>
+        <v>0.1435825062941437</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1066700755963144</v>
+        <v>0.1072155871093254</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1196322508573493</v>
+        <v>0.1435127862480388</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03440148070659092</v>
+        <v>0.03406524603695081</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03440148070659092</v>
+        <v>0.03406524603695081</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07049358824573421</v>
+        <v>0.07052131095580125</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1203890404968541</v>
+        <v>0.1444633805658869</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1086208207176836</v>
+        <v>0.1067812355589517</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1203661910466582</v>
+        <v>0.1443932327894378</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03510786165487194</v>
+        <v>0.03475595576031494</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03510786165487194</v>
+        <v>0.03475595576031494</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07205164540087491</v>
+        <v>0.07201516792181728</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1211231200120788</v>
+        <v>0.1453442548376301</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1053540440636375</v>
+        <v>0.1039932311334289</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1211001312359671</v>
+        <v>0.1452736793308368</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0345997820192144</v>
+        <v>0.03402720606286944</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0345997820192144</v>
+        <v>0.03402720606286944</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0717694530747591</v>
+        <v>0.0715582026229237</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1218571995273035</v>
+        <v>0.1462251291093734</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1058890923364191</v>
+        <v>0.1051193578732503</v>
       </c>
       <c r="O231" t="n">
-        <v>0.121834071425276</v>
+        <v>0.1461541258722358</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03438304790263588</v>
+        <v>0.03436174471811584</v>
       </c>
       <c r="G232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03438304790263588</v>
+        <v>0.03436174471811584</v>
       </c>
       <c r="K232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06987049811816773</v>
+        <v>0.07195170033896683</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1225912790425283</v>
+        <v>0.1471060033811166</v>
       </c>
       <c r="N232" t="n">
-        <v>0.104852185281742</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1225680116145848</v>
+        <v>0.1470345724136348</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03380493553551366</v>
+        <v>0.0348433063715085</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03380493553551366</v>
+        <v>0.0348433063715085</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06955640977817848</v>
+        <v>0.06975500675318969</v>
       </c>
       <c r="M233" t="n">
-        <v>0.123325358557753</v>
+        <v>0.1479868776528598</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1099636640840339</v>
+        <v>0.108287555603614</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1233019518038938</v>
+        <v>0.1479150189550339</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03490302362332207</v>
+        <v>0.03454529836540252</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03490302362332207</v>
+        <v>0.03454529836540252</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07041614026510307</v>
+        <v>0.06971589623193547</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1240594380729777</v>
+        <v>0.148867751924603</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1097596607872344</v>
+        <v>0.1066415813904054</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1240358919932026</v>
+        <v>0.1487954654964329</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03416821973082115</v>
+        <v>0.03544334555354205</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03416821973082115</v>
+        <v>0.03544334555354205</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06933553291878949</v>
+        <v>0.07284672495988381</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1247935175882024</v>
+        <v>0.1497486261963462</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1063347364527387</v>
+        <v>0.1071169580180347</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1247698321825115</v>
+        <v>0.1496759120378319</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03430241946983839</v>
+        <v>0.03520562712564218</v>
       </c>
       <c r="G236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03430241946983839</v>
+        <v>0.03520562712564218</v>
       </c>
       <c r="K236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07048108400968045</v>
+        <v>0.07017992529784772</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1255275971034271</v>
+        <v>0.1506295004680894</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1077661299869233</v>
+        <v>0.1109613516458821</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1255037723718204</v>
+        <v>0.1505563585792309</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03445163964826162</v>
+        <v>0.0347996500644589</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03445163964826162</v>
+        <v>0.0347996500644589</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07126258156280699</v>
+        <v>0.0700175634676245</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1262616766186518</v>
+        <v>0.1515103747398326</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1094050389795017</v>
+        <v>0.1061943043241109</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1262377125611293</v>
+        <v>0.1514368051206299</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03449040074561893</v>
+        <v>0.03384900937169635</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03449040074561893</v>
+        <v>0.03384900937169635</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07195573589617882</v>
+        <v>0.07259240838117473</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1269957561338766</v>
+        <v>0.1523912490115759</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1102332900971281</v>
+        <v>0.1100616014281311</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1269716527504382</v>
+        <v>0.1523172516620289</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03467515668135082</v>
+        <v>0.03399298242308402</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03467515668135082</v>
+        <v>0.03399298242308402</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07118491989375106</v>
+        <v>0.07089703645371184</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1277298356491013</v>
+        <v>0.153272123283319</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1074558299603441</v>
+        <v>0.1057723255517189</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1277055929397471</v>
+        <v>0.1531976982034279</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03438446662380425</v>
+        <v>0.03499996916098271</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03438446662380425</v>
+        <v>0.03499996916098271</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07165456285308422</v>
+        <v>0.07163059915553927</v>
       </c>
       <c r="M240" t="n">
-        <v>0.128463915164326</v>
+        <v>0.1541529975550623</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1055141046766645</v>
+        <v>0.1073956435529391</v>
       </c>
       <c r="O240" t="n">
-        <v>0.128439533129056</v>
+        <v>0.1540781447448269</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03492360653985367</v>
+        <v>0.03439878838984502</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03492360653985367</v>
+        <v>0.03439878838984502</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06976265409871346</v>
+        <v>0.07219651394959442</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1291979946795507</v>
+        <v>0.1550338718268055</v>
       </c>
       <c r="N241" t="n">
-        <v>0.109216378401529</v>
+        <v>0.1105638392975181</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1291734733183649</v>
+        <v>0.1549585912862259</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03498540402201475</v>
+        <v>0.03444695195706605</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03498540402201475</v>
+        <v>0.03444695195706605</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07033348856658653</v>
+        <v>0.07186374254229735</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1299320741947755</v>
+        <v>0.1559147460985487</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1100129249796712</v>
+        <v>0.108437253494422</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1299074135076738</v>
+        <v>0.155839037827625</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03424717941995442</v>
+        <v>0.03439788083714365</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03424717941995442</v>
+        <v>0.03439788083714365</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07187829407651919</v>
+        <v>0.07287251477519949</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1306661537100002</v>
+        <v>0.1567956203702919</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1074727505410923</v>
+        <v>0.1076822274017693</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1306413536969827</v>
+        <v>0.1567194843690239</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03425954465282599</v>
+        <v>0.03457383413672789</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03425954465282599</v>
+        <v>0.03457383413672789</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07148333627865577</v>
+        <v>0.06947657351535258</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1314002332252249</v>
+        <v>0.1576764946420351</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1057835655691643</v>
+        <v>0.111011551390471</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1313752938862915</v>
+        <v>0.157599930910423</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03391892803760831</v>
+        <v>0.03531296190097676</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03391892803760831</v>
+        <v>0.03531296190097676</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07210647279815516</v>
+        <v>0.0724138663173628</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1321343127404496</v>
+        <v>0.1585573689137783</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1075846350932532</v>
+        <v>0.1112305901556738</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1321092340756004</v>
+        <v>0.158480377451822</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03409888326946833</v>
+        <v>0.03525237284473924</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03409888326946833</v>
+        <v>0.03525237284473924</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07118981518271961</v>
+        <v>0.07123412132855067</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1328683922556743</v>
+        <v>0.1594382431855215</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1076337833707229</v>
+        <v>0.1099416770691954</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1328431742649093</v>
+        <v>0.159360823993221</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03513374525923603</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03513374525923603</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06960685299981409</v>
+        <v>0.07324893280488742</v>
       </c>
       <c r="M247" t="n">
-        <v>0.133602471770899</v>
+        <v>0.1603191174572648</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1085826534782083</v>
+        <v>0.1083406401501796</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1335771144542182</v>
+        <v>0.16024127053462</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03449134785400074</v>
+        <v>0.03497775042426067</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03449134785400074</v>
+        <v>0.03497775042426067</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07198290760889739</v>
+        <v>0.07309864371331734</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1343365512861238</v>
+        <v>0.161199991729008</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1048277543958104</v>
+        <v>0.1112731825575177</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1343110546435271</v>
+        <v>0.161121717076019</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03426513650060482</v>
+        <v>0.03522611393343542</v>
       </c>
       <c r="G249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03426513650060482</v>
+        <v>0.03522611393343542</v>
       </c>
       <c r="K249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06985449634667978</v>
+        <v>0.07247081294724159</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1350706308013485</v>
+        <v>0.1620808660007512</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1058455333558173</v>
+        <v>0.1104564633577323</v>
       </c>
       <c r="O249" t="n">
-        <v>0.135044994832836</v>
+        <v>0.162002163617418</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03398588323564593</v>
+        <v>0.03404689979680894</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03398588323564593</v>
+        <v>0.03404689979680894</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06929060255797342</v>
+        <v>0.07156580848833374</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1358047103165732</v>
+        <v>0.1629617402724944</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1076657714450143</v>
+        <v>0.1100996952570237</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1357789350221449</v>
+        <v>0.162882610158817</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03382911783518508</v>
+        <v>0.03522892523066426</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03382911783518508</v>
+        <v>0.03522892523066426</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07072364584415147</v>
+        <v>0.07366545002204147</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1365387898317979</v>
+        <v>0.1638426145442376</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1052639720697839</v>
+        <v>0.1086927494820638</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1365128752114538</v>
+        <v>0.163763056700216</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03444772723638354</v>
+        <v>0.03399581909125057</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03444772723638354</v>
+        <v>0.03399581909125057</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07228966241810972</v>
+        <v>0.07374519997880896</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1372728693470227</v>
+        <v>0.1647234888159808</v>
       </c>
       <c r="N252" t="n">
-        <v>0.11038730383888</v>
+        <v>0.1114844751669267</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1372468154007627</v>
+        <v>0.1646435032416151</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03477934333306336</v>
+        <v>0.03521392020008196</v>
       </c>
       <c r="G253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03477934333306336</v>
+        <v>0.03521392020008196</v>
       </c>
       <c r="K253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07010489258022762</v>
+        <v>0.07404641360024869</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1380069488622474</v>
+        <v>0.1656043630877241</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1062253279635664</v>
+        <v>0.1070511161211097</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1379807555900716</v>
+        <v>0.1655239497830141</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03487490200885159</v>
+        <v>0.03481650830842588</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03487490200885159</v>
+        <v>0.03481650830842588</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06962866411769042</v>
+        <v>0.0736464007073801</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1387410283774721</v>
+        <v>0.1664852373594672</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1068776391181245</v>
+        <v>0.1056008766358904</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1387146957793805</v>
+        <v>0.1664043963244131</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03524395647904198</v>
+        <v>0.03499695727376216</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03524395647904198</v>
+        <v>0.03499695727376216</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0706492210144922</v>
+        <v>0.07044886440923007</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1394751078926968</v>
+        <v>0.1673661116312105</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1080578530166048</v>
+        <v>0.1057186939627489</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1394486359686893</v>
+        <v>0.1672848428658121</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03437478025985953</v>
+        <v>0.03515046572631592</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03437478025985953</v>
+        <v>0.03515046572631592</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06982817104291938</v>
+        <v>0.0700807463198802</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1402091874079215</v>
+        <v>0.1682469859029537</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1060622055322682</v>
+        <v>0.1069222891697717</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1401825761579982</v>
+        <v>0.1681652894072111</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03402812002960587</v>
+        <v>0.03429479092472069</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03402812002960587</v>
+        <v>0.03429479092472069</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07260267203377146</v>
+        <v>0.0709657606386587</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1409432669231462</v>
+        <v>0.1691278601746969</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1053744742039348</v>
+        <v>0.1073935181569466</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1409165163473071</v>
+        <v>0.1690457359486101</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03455029753079095</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03455029753079095</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06987199131962102</v>
+        <v>0.07009595540242852</v>
       </c>
       <c r="M258" t="n">
-        <v>0.141677346438371</v>
+        <v>0.1700087344464401</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1075388547237225</v>
+        <v>0.1118285886079805</v>
       </c>
       <c r="O258" t="n">
-        <v>0.141650456536616</v>
+        <v>0.1699261824900091</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03465529363388987</v>
+        <v>0.03459561579160418</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03465529363388987</v>
+        <v>0.03459561579160418</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07141370648186257</v>
+        <v>0.07278805246276659</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1424114259535957</v>
+        <v>0.1708896087181833</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1081024249265602</v>
+        <v>0.109395903042505</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1423843967259249</v>
+        <v>0.1708066290314081</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03398910695352984</v>
+        <v>0.03412706154816757</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03398910695352984</v>
+        <v>0.03412706154816757</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07102389795333131</v>
+        <v>0.07181651250831539</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1431455054688204</v>
+        <v>0.1717704829899265</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1073419603541974</v>
+        <v>0.1075565091043551</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1431183369152338</v>
+        <v>0.1716870755728071</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.034225745912394</v>
+        <v>0.03558979414780099</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="J261" t="n">
-        <v>0.034225745912394</v>
+        <v>0.03558979414780099</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.069778500093338</v>
+        <v>0.07008806779451479</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1438795849840451</v>
+        <v>0.1726513572616697</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1074866973636135</v>
+        <v>0.1083860397817598</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1438522771045427</v>
+        <v>0.1725675221142061</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03490384450203268</v>
+        <v>0.03460399004840095</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03490384450203268</v>
+        <v>0.03460399004840095</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0702315229117548</v>
+        <v>0.07243361669231657</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1446136644992699</v>
+        <v>0.173532231533413</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1060405333084542</v>
+        <v>0.1096112180518367</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1445862172938516</v>
+        <v>0.1734479686556052</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03501266302531256</v>
+        <v>0.03553910120440254</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03501266302531256</v>
+        <v>0.03553910120440254</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07097339090162866</v>
+        <v>0.07190208054530811</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1453477440144946</v>
+        <v>0.1744131058051562</v>
       </c>
       <c r="N263" t="n">
-        <v>0.109616672285254</v>
+        <v>0.1106474570628941</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1453201574831605</v>
+        <v>0.1743284151970041</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03471277194519559</v>
+        <v>0.03437959666602634</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03471277194519559</v>
+        <v>0.03437959666602634</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07279109817505608</v>
+        <v>0.07068132681576689</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1460818235297193</v>
+        <v>0.1752939800768994</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1098759443113568</v>
+        <v>0.1101632355677905</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1460540976724694</v>
+        <v>0.1752088617384032</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8809,7 +8809,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9274,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0003499999999999961</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0003499999999999961</v>
+        <v>0.0001449999999999924</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01800629997386594</v>
+        <v>0.01728604797491129</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003884825226885896</v>
+        <v>0.0003524142370958507</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02673294728280368</v>
+        <v>0.02455066587196258</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003529075483260601</v>
+        <v>0.0003273397565595806</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9316,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.008384719019729189</v>
+        <v>0.007848086982238427</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000558977075622436</v>
+        <v>0.00045516217423545</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.008384719019729189</v>
+        <v>0.008734082312217901</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000558977075622436</v>
+        <v>0.000582267787106704</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001165447568065769</v>
+        <v>0.001101294490924534</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001080329229569573</v>
+        <v>0.001091132521865268</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9356,10 +9356,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.0151812285652731</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.0009103243484708999</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9369,16 +9369,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03894801692641453</v>
+        <v>0.03875598646782447</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001761748543486426</v>
+        <v>0.001761103788942293</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05772701992400936</v>
+        <v>0.05770383876806567</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001760893082798022</v>
+        <v>0.001761001658599988</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9398,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0179270268564246</v>
+        <v>0.02157893907239446</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00265138697291689</v>
+        <v>0.00136548652270635</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0179270268564246</v>
+        <v>0.01910041293929862</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03870719836092418</v>
+        <v>0.03862541031710998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002642622815229639</v>
+        <v>0.00264165568341344</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05702177726311458</v>
+        <v>0.05835663892088516</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002641339624197033</v>
+        <v>0.002641502487899983</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9445,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01888715146351441</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003535182630555853</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01888715146351441</v>
+        <v>0.01990203323590489</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0423265119635774</v>
+        <v>0.04177369241283724</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003523497086972852</v>
+        <v>0.003522207577884586</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05988579481370793</v>
+        <v>0.06131641222703688</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003521786165596044</v>
+        <v>0.003522003317199977</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9482,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.000558977075622436</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008384719019729189</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02053542152906777</v>
+        <v>0.03138562773942012</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004418978288194817</v>
+        <v>0.00227581087117725</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02053542152906777</v>
+        <v>0.01939256698387851</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04241238717557713</v>
+        <v>0.04441253644538909</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004404371358716064</v>
+        <v>0.004402759472355733</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06863297493000531</v>
+        <v>0.06484704765306271</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004402232706995054</v>
+        <v>0.004402504146499972</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02054994009858879</v>
+        <v>0.03590351268165734</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00530277394583378</v>
+        <v>0.0027309730454127</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02054994009858879</v>
+        <v>0.02164907580226805</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04477274974994513</v>
+        <v>0.0440778758650277</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005285245630459279</v>
+        <v>0.005283311366826879</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06789083447262845</v>
+        <v>0.06438505601093475</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005282679248394066</v>
+        <v>0.005283004975799965</v>
       </c>
     </row>
     <row r="72">
@@ -9552,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02186130900003729</v>
+        <v>0.04009441586339473</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.006186569603472743</v>
+        <v>0.00318613521964815</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02186130900003729</v>
+        <v>0.02163490902809433</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04705497594368557</v>
+        <v>0.04520849963390636</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.006166119902202491</v>
+        <v>0.006163863261298026</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07362957843617862</v>
+        <v>0.07071416066177039</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.006163125789793077</v>
+        <v>0.006163505805099959</v>
       </c>
     </row>
     <row r="73">
@@ -9598,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0231105025667209</v>
+        <v>0.04380504926466551</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.007070365261111706</v>
+        <v>0.0036412973938836</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0231105025667209</v>
+        <v>0.02218314476512198</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04897731674703135</v>
+        <v>0.0471180594994641</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.007046994173945703</v>
+        <v>0.007044415155769172</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07441939147972665</v>
+        <v>0.07322911121542514</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.007043572331192088</v>
+        <v>0.007044006634399954</v>
       </c>
     </row>
     <row r="74">
@@ -9635,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02344735765774486</v>
+        <v>0.04688212486550304</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007954160918750669</v>
+        <v>0.00409645956811905</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02344735765774486</v>
+        <v>0.02222857121131498</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04759724550013955</v>
+        <v>0.04736590105622696</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007927868445688917</v>
+        <v>0.007924967050240319</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07666242932626477</v>
+        <v>0.07333638365755185</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.0079240188725911</v>
+        <v>0.007924507463699949</v>
       </c>
     </row>
     <row r="75">
@@ -9679,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02403216262274344</v>
+        <v>0.04917235464594054</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008837956576389633</v>
+        <v>0.0045516217423545</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02403216262274344</v>
+        <v>0.02330116795018963</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0473844633024032</v>
+        <v>0.04794429968372577</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008808742717432129</v>
+        <v>0.008805518944711465</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07228454325730721</v>
+        <v>0.07471608489138237</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008804465413990109</v>
+        <v>0.008805008292999943</v>
       </c>
     </row>
     <row r="76">
@@ -9721,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02473668644684719</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009721752234028597</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02473668644684719</v>
+        <v>0.02350859390010149</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04905460149552499</v>
+        <v>0.05051216979797837</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009689616989175342</v>
+        <v>0.009686070839182612</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07786265390425007</v>
+        <v>0.07947726306239944</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009684911955389121</v>
+        <v>0.009685509122299936</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9758,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02392877588406693</v>
+        <v>0.05122247676604967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01060554789166756</v>
+        <v>0.0054619460908254</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02392877588406693</v>
+        <v>0.02419280062869841</v>
       </c>
       <c r="K77" t="n">
         <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05139241982230114</v>
+        <v>0.04990204854091232</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01057049126091856</v>
+        <v>0.01056662273365376</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07459887020307793</v>
+        <v>0.07519538832574274</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01056535849678813</v>
+        <v>0.01056600995159993</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9798,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02415016591245461</v>
+        <v>0.05190267352700431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01148934354930652</v>
+        <v>0.00591710826506085</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02415016591245461</v>
+        <v>0.02401593521811267</v>
       </c>
       <c r="K78" t="n">
         <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05351858313649091</v>
+        <v>0.05074455418643764</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01145136553266177</v>
+        <v>0.0114471746281249</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07931710170240119</v>
+        <v>0.07544715618553127</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01144580503818714</v>
+        <v>0.01144651078089993</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9840,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0257598876578394</v>
+        <v>0.05257099489715768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01237313920694549</v>
+        <v>0.0063722704392963</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0257598876578394</v>
+        <v>0.02520943400022997</v>
       </c>
       <c r="K79" t="n">
         <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05453892833917826</v>
+        <v>0.0535054292852242</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01233223980440498</v>
+        <v>0.01232772652259605</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08192330340999437</v>
+        <v>0.07849056890951617</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01232625157958615</v>
+        <v>0.01232701161019992</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02490894660662826</v>
+        <v>0.05322753472188137</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01325693486458445</v>
+        <v>0.00682743261353175</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02490894660662826</v>
+        <v>0.02519525154994265</v>
       </c>
       <c r="K80" t="n">
         <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05135275006292567</v>
+        <v>0.05403965461766508</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0132131140761482</v>
+        <v>0.0132082784170672</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08171812054101779</v>
+        <v>0.07985835697757265</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01320669812098517</v>
+        <v>0.01320751243949991</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02560750340578372</v>
+        <v>0.05387238684654701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01414073052222341</v>
+        <v>0.007282594787767199</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02560750340578372</v>
+        <v>0.02537396745913799</v>
       </c>
       <c r="K81" t="n">
         <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0556351550959529</v>
+        <v>0.05339169424807838</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01409398834789141</v>
+        <v>0.01408883031153834</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08209650656005463</v>
+        <v>0.07804533164065136</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01408714466238418</v>
+        <v>0.01408801326879991</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9942,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02646092320392764</v>
+        <v>0.05450564511652622</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01502452617986238</v>
+        <v>0.00773775696200265</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02646092320392764</v>
+        <v>0.02559022341487178</v>
       </c>
       <c r="K82" t="n">
         <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05399855667204681</v>
+        <v>0.05426392030648208</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01497486261963462</v>
+        <v>0.01496938220600949</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08142466554735822</v>
+        <v>0.08358188788833454</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01496759120378319</v>
+        <v>0.0149685140980999</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9973,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02661602464343783</v>
+        <v>0.05512740337719062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01590832183750134</v>
+        <v>0.008192919136238101</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02661602464343783</v>
+        <v>0.02566550632887464</v>
       </c>
       <c r="K83" t="n">
         <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05555312813218524</v>
+        <v>0.05620529207561628</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01585573689137783</v>
+        <v>0.01584993410048064</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08483582265338113</v>
+        <v>0.08459923496316285</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0158480377451822</v>
+        <v>0.0158490149273999</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10009,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02653100059978838</v>
+        <v>0.05573775547391183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0167921174951403</v>
+        <v>0.00864808131047355</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02653100059978838</v>
+        <v>0.02551117488658161</v>
       </c>
       <c r="K84" t="n">
         <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0564249348357222</v>
+        <v>0.05584104166782092</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01673661116312105</v>
+        <v>0.01673048599495178</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08466103969797606</v>
+        <v>0.08512483728254222</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01672848428658121</v>
+        <v>0.01672951575669989</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10049,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02736453300410575</v>
+        <v>0.05633679525206146</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01767591315277927</v>
+        <v>0.009103243484709001</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02736453300410575</v>
+        <v>0.0265800859340582</v>
       </c>
       <c r="K85" t="n">
         <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05586919950612582</v>
+        <v>0.05353416315970286</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01761748543486426</v>
+        <v>0.01761103788942293</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08433988145827592</v>
+        <v>0.08086392188440228</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01760893082798022</v>
+        <v>0.01761001658599989</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10091,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02731645329462534</v>
+        <v>0.05692461655701116</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01855970881041823</v>
+        <v>0.00955840565894445</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02731645329462534</v>
+        <v>0.0269693619506696</v>
       </c>
       <c r="K86" t="n">
         <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05720279920969196</v>
+        <v>0.05463567559420263</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01849835970660747</v>
+        <v>0.01849158978389408</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08131161122810254</v>
+        <v>0.08542152339252462</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01848937736937923</v>
+        <v>0.01849051741529988</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10122,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02615611467248262</v>
+        <v>0.05750131323413252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01944350446805719</v>
+        <v>0.0100135678331799</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02615611467248262</v>
+        <v>0.02729530631830078</v>
       </c>
       <c r="K87" t="n">
         <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0549949268109336</v>
+        <v>0.05702118955012486</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01937923397835068</v>
+        <v>0.01937214167836522</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08606239477059124</v>
+        <v>0.08411703106484619</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01936982391077824</v>
+        <v>0.01937101824459987</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10157,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02659016165493545</v>
+        <v>0.05806697912879716</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02032730012569616</v>
+        <v>0.01046873000741535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02659016165493545</v>
+        <v>0.02665119688897499</v>
       </c>
       <c r="K88" t="n">
         <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05529946225686974</v>
+        <v>0.05573806475949833</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0202601082500939</v>
+        <v>0.02025269357283637</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0870312413017012</v>
+        <v>0.08525025478994452</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02025027045217725</v>
+        <v>0.02025151907389987</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10191,4780 +10191,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02763335691082287</v>
+        <v>0.05862170808637672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02121109578333512</v>
+        <v>0.0109238921816508</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02763335691082287</v>
+        <v>0.02754091980265093</v>
       </c>
       <c r="K89" t="n">
         <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05445388035764562</v>
+        <v>0.0543629201053191</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02114098252183711</v>
+        <v>0.02113324546730752</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08811980292716004</v>
+        <v>0.08529985684148744</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02113071699357626</v>
+        <v>0.02113201990319986</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02731151817446968</v>
+        <v>0.05916559395224281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02209489144097408</v>
+        <v>0.01137905435588625</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02731151817446968</v>
+        <v>0.02782395532895914</v>
       </c>
       <c r="K90" t="n">
         <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05546397012055648</v>
+        <v>0.05463553642878138</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02202185679358033</v>
+        <v>0.02201379736177866</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08776191691537932</v>
+        <v>0.08275363609830705</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02201116353497528</v>
+        <v>0.02201252073249986</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02691526313232508</v>
+        <v>0.05969873057176707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02297868709861305</v>
+        <v>0.0118342165301217</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02691526313232508</v>
+        <v>0.02815757530037634</v>
       </c>
       <c r="K91" t="n">
         <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05726854982161586</v>
+        <v>0.05456831708875504</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02290273106532354</v>
+        <v>0.02289434925624981</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08963702463541451</v>
+        <v>0.08832556889502308</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02289161007637429</v>
+        <v>0.02289302156179985</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02788744913781543</v>
+        <v>0.0602212117903211</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02386248275625201</v>
+        <v>0.01228937870435715</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02788744913781543</v>
+        <v>0.0281729593725058</v>
       </c>
       <c r="K92" t="n">
         <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05727636883653506</v>
+        <v>0.05567103686259675</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02378360533706675</v>
+        <v>0.02377490115072096</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08708960047760078</v>
+        <v>0.08950644669109259</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02377205661777329</v>
+        <v>0.02377352239109985</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02816654189326898</v>
+        <v>0.06073313145327652</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02474627841389097</v>
+        <v>0.0127445408785926</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02816654189326898</v>
+        <v>0.02788494382831673</v>
       </c>
       <c r="K93" t="n">
         <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05841036996476603</v>
+        <v>0.05594363426388471</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02466447960880996</v>
+        <v>0.0246554530451921</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08478899762616193</v>
+        <v>0.08467860698356783</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02465250315917231</v>
+        <v>0.02465402322039984</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0278512412388795</v>
+        <v>0.06123458340600496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02563007407152994</v>
+        <v>0.01319970305282805</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0278512412388795</v>
+        <v>0.02780160208649129</v>
       </c>
       <c r="K94" t="n">
         <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05875445960681339</v>
+        <v>0.05997698332398554</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02554535388055318</v>
+        <v>0.02553600493966325</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08606409706102253</v>
+        <v>0.08633540269701778</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02553294970057132</v>
+        <v>0.02553452404969983</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02818583790020812</v>
+        <v>0.06172566149387802</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0265138697291689</v>
+        <v>0.0136548652270635</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02818583790020812</v>
+        <v>0.02716840711369579</v>
       </c>
       <c r="K95" t="n">
         <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05745056011813107</v>
+        <v>0.05646297695941427</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02642622815229639</v>
+        <v>0.02641655683413439</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08737886586690735</v>
+        <v>0.0883216402401823</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02641339624197033</v>
+        <v>0.02641502487899983</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02844062231408173</v>
+        <v>0.06220645956226735</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02739766538680786</v>
+        <v>0.01411002740129895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02844062231408173</v>
+        <v>0.02765012875616221</v>
       </c>
       <c r="K96" t="n">
         <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05965137808941795</v>
+        <v>0.05622350598994791</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0273071024240396</v>
+        <v>0.02729710872860554</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08934962228406479</v>
+        <v>0.08666056981227521</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02729384278336934</v>
+        <v>0.02729552570829982</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02806888203474664</v>
+        <v>0.06267707145654454</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02828146104444683</v>
+        <v>0.0145651895755344</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02806888203474664</v>
+        <v>0.02829430037351038</v>
       </c>
       <c r="K97" t="n">
         <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05733951245099725</v>
+        <v>0.05754676399119316</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02818797669578281</v>
+        <v>0.02817766062307669</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08872867064236206</v>
+        <v>0.08603616935717723</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02817428932476835</v>
+        <v>0.02817602653759982</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02918654584719944</v>
+        <v>0.06313759102208125</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02916525670208579</v>
+        <v>0.01502035174976985</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02918654584719944</v>
+        <v>0.0276970687566099</v>
       </c>
       <c r="K98" t="n">
         <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05892710780620655</v>
+        <v>0.05741726259658411</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02906885096752603</v>
+        <v>0.02905821251754783</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09018896119223985</v>
+        <v>0.09104414365113928</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02905473586616737</v>
+        <v>0.02905652736689981</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02839417623040894</v>
+        <v>0.06358811210424906</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03004905235972475</v>
+        <v>0.0154755139240053</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02839417623040894</v>
+        <v>0.02831775985872051</v>
       </c>
       <c r="K99" t="n">
         <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05967677044717423</v>
+        <v>0.0602937363789291</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02994972523926924</v>
+        <v>0.02993876441201898</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08617538173933487</v>
+        <v>0.08591350593879143</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02993518240756637</v>
+        <v>0.0299370281961998</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02803263231761317</v>
+        <v>0.06402872854841959</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03093284801736372</v>
+        <v>0.01593067609824075</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02803263231761317</v>
+        <v>0.0282294281982222</v>
       </c>
       <c r="K100" t="n">
         <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05910276407550105</v>
+        <v>0.05929908810209131</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03083059951101245</v>
+        <v>0.03081931630649013</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08745823823165905</v>
+        <v>0.08895450876756644</v>
       </c>
       <c r="O100" t="n">
-        <v>0.03081562894896538</v>
+        <v>0.0308175290254998</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02884661598750686</v>
+        <v>0.06445953419996449</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03181664367500268</v>
+        <v>0.0163858382724762</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02884661598750686</v>
+        <v>0.02837615962254951</v>
       </c>
       <c r="K101" t="n">
         <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05875921248381416</v>
+        <v>0.06039607635733721</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03171147378275567</v>
+        <v>0.03169986820096127</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08697195195925572</v>
+        <v>0.09142967386880468</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0316960754903644</v>
+        <v>0.0316980298547998</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02861096310386974</v>
+        <v>0.06488062290425539</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03270043933264164</v>
+        <v>0.01684100044671165</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02861096310386974</v>
+        <v>0.02882663808872615</v>
       </c>
       <c r="K102" t="n">
         <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05922942135109208</v>
+        <v>0.06169145934958947</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03259234805449888</v>
+        <v>0.03258042009543242</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08886797045490646</v>
+        <v>0.09112955399864847</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0325765220317634</v>
+        <v>0.03257853068409979</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02844981927471339</v>
+        <v>0.06529208850666386</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03358423499028061</v>
+        <v>0.0172961626209471</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02844981927471339</v>
+        <v>0.02866562193078628</v>
       </c>
       <c r="K103" t="n">
         <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05753062994177829</v>
+        <v>0.06070758960526762</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03347322232624209</v>
+        <v>0.03346097198990357</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09239818017441798</v>
+        <v>0.08903275385238696</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03345696857316242</v>
+        <v>0.03345903151339978</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02988743727510687</v>
+        <v>0.06569402485256158</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03446803064791957</v>
+        <v>0.01775132479518255</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02988743727510687</v>
+        <v>0.02947669124858429</v>
       </c>
       <c r="K104" t="n">
         <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06183623628429596</v>
+        <v>0.06154260761919875</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03435409659798531</v>
+        <v>0.03434152388437471</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09228124350762873</v>
+        <v>0.08937022439063258</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03433741511456143</v>
+        <v>0.03433953234269978</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02928207896709491</v>
+        <v>0.06608652578732011</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03535182630555853</v>
+        <v>0.018206486969418</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02928207896709491</v>
+        <v>0.02844559319854544</v>
       </c>
       <c r="K105" t="n">
         <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06012742431768389</v>
+        <v>0.058717877421086</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03523497086972852</v>
+        <v>0.03522207577884586</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09166001598089263</v>
+        <v>0.09134304015317674</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03521786165596043</v>
+        <v>0.03522003317199977</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02959497741826385</v>
+        <v>0.06646968515631112</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0362356219631975</v>
+        <v>0.01866164914365345</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02959497741826385</v>
+        <v>0.02971389234793977</v>
       </c>
       <c r="K106" t="n">
         <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06075603936690549</v>
+        <v>0.05910838520733178</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03611584514147173</v>
+        <v>0.03610262767331701</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09308246533330827</v>
+        <v>0.09265521357697881</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03609830819735945</v>
+        <v>0.03610053400129976</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02940748522387794</v>
+        <v>0.0668435968049062</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03711941762083646</v>
+        <v>0.0191168113178889</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02940748522387794</v>
+        <v>0.02859169887295636</v>
       </c>
       <c r="K107" t="n">
         <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05905212790338904</v>
+        <v>0.06141004691381605</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03699671941321495</v>
+        <v>0.03698317956778815</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0909541450915336</v>
+        <v>0.09039361714685523</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03697875473875847</v>
+        <v>0.03698103483059976</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02897654754870128</v>
+        <v>0.06720835457847699</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03800321327847542</v>
+        <v>0.01957197349212435</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02897654754870128</v>
+        <v>0.02888449127708076</v>
       </c>
       <c r="K108" t="n">
         <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05879434564170599</v>
+        <v>0.05908310512784715</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03787759368495815</v>
+        <v>0.0378637314622593</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0929392132223662</v>
+        <v>0.09401573632489163</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03785920128015747</v>
+        <v>0.03786153565989975</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02889353699181527</v>
+        <v>0.06756405232239508</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03888700893611439</v>
+        <v>0.0200271356663598</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02889353699181527</v>
+        <v>0.02876509936159215</v>
       </c>
       <c r="K109" t="n">
         <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06178565779475453</v>
+        <v>0.06111389882325968</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03875846795670137</v>
+        <v>0.03874428335673045</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09122224936913326</v>
+        <v>0.09265777023795074</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03873964782155648</v>
+        <v>0.03874203648919974</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02912178460804921</v>
+        <v>0.06791078388203213</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03977080459375335</v>
+        <v>0.02048229784059525</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02912178460804921</v>
+        <v>0.02850792758578494</v>
       </c>
       <c r="K110" t="n">
         <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06028388447700198</v>
+        <v>0.06238297505706938</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03963934222844458</v>
+        <v>0.03962483525120159</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09376824598760386</v>
+        <v>0.09281639523830121</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03962009436295549</v>
+        <v>0.03962253731849974</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02944398493832057</v>
+        <v>0.06824864310275973</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04065460025139232</v>
+        <v>0.0209374600148307</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02944398493832057</v>
+        <v>0.02915365134540422</v>
       </c>
       <c r="K111" t="n">
         <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06267959016763824</v>
+        <v>0.06266659687173648</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0405202165001878</v>
+        <v>0.04050538714567273</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0926877441242282</v>
+        <v>0.09144326384876478</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0405005409043545</v>
+        <v>0.04050303814779974</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02948651324731706</v>
+        <v>0.06857772382994952</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04153839590903128</v>
+        <v>0.02139262218906615</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02948651324731706</v>
+        <v>0.03047948955303732</v>
       </c>
       <c r="K112" t="n">
         <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06079966911256887</v>
+        <v>0.06137249369413103</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04140109077193101</v>
+        <v>0.04138593904014389</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09253139041134378</v>
+        <v>0.09292692310574513</v>
       </c>
       <c r="O112" t="n">
-        <v>0.04138098744575352</v>
+        <v>0.04138353897709973</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02926326568692891</v>
+        <v>0.06889811990897311</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04242219156667024</v>
+        <v>0.0218477843633016</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02926326568692891</v>
+        <v>0.02907225343359898</v>
       </c>
       <c r="K113" t="n">
         <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0601925358217465</v>
+        <v>0.06048656350092099</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04228196504367423</v>
+        <v>0.04226649093461503</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08989562247842187</v>
+        <v>0.09492490127056352</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04226143398715253</v>
+        <v>0.04226403980639972</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02982086013068067</v>
+        <v>0.06920992518520212</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0433059872243092</v>
+        <v>0.02230294653753705</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02982086013068067</v>
+        <v>0.02994481971804031</v>
       </c>
       <c r="K114" t="n">
         <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06057610525275434</v>
+        <v>0.06237663191686971</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04316283931541744</v>
+        <v>0.04314704282908618</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09608948200175227</v>
+        <v>0.09131142743448695</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04314188052855154</v>
+        <v>0.04314454063569972</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02983475287353046</v>
+        <v>0.06951323350400819</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04418978288194816</v>
+        <v>0.0227581087117725</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02983475287353046</v>
+        <v>0.02939904333386321</v>
       </c>
       <c r="K115" t="n">
         <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06266094761271612</v>
+        <v>0.06353648679683579</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04404371358716065</v>
+        <v>0.04402759472355733</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09455330394351075</v>
+        <v>0.09179655411983445</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04402232706995055</v>
+        <v>0.04402504146499971</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02987127422802098</v>
+        <v>0.06980813871076291</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04507357853958713</v>
+        <v>0.02321327088600795</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02987127422802098</v>
+        <v>0.03045523971953298</v>
       </c>
       <c r="K116" t="n">
         <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06047387940747651</v>
+        <v>0.06336287994357878</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04492458785890386</v>
+        <v>0.04490814661802847</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09511883301858787</v>
+        <v>0.09253858287687433</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04490277361134955</v>
+        <v>0.04490554229429971</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02963854519911051</v>
+        <v>0.07009473465083792</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04595737419722609</v>
+        <v>0.0236684330602434</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02963854519911051</v>
+        <v>0.02956241588240566</v>
       </c>
       <c r="K117" t="n">
         <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06100570816060877</v>
+        <v>0.06044011288701454</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04580546213064707</v>
+        <v>0.04578869851249961</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09090992698843409</v>
+        <v>0.09144896246435386</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04578322015274857</v>
+        <v>0.04578604312359971</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03003758864808409</v>
+        <v>0.07037311516960483</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04684116985486506</v>
+        <v>0.02412359523447885</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03003758864808409</v>
+        <v>0.02984560080451762</v>
       </c>
       <c r="K118" t="n">
         <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06192471921203199</v>
+        <v>0.06125870221072796</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04668633640239029</v>
+        <v>0.04666925040697077</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09067166915541414</v>
+        <v>0.09154528479523294</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04666366669414759</v>
+        <v>0.04666654395289969</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03086538638303273</v>
+        <v>0.07064337411243526</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04772496551250402</v>
+        <v>0.0245787574087143</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03086538638303273</v>
+        <v>0.02986778711527628</v>
       </c>
       <c r="K119" t="n">
         <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05960820037300796</v>
+        <v>0.0629534968995904</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0475672106741335</v>
+        <v>0.04754980230144192</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09408723218764808</v>
+        <v>0.09272588019610362</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04754411323554659</v>
+        <v>0.04754704478219969</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03063155201386972</v>
+        <v>0.07090560532470085</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04860876117014298</v>
+        <v>0.02503391958294975</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03063155201386972</v>
+        <v>0.0302821757691783</v>
       </c>
       <c r="K120" t="n">
         <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06252813155072828</v>
+        <v>0.06160377438060019</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04844808494587671</v>
+        <v>0.04843035419591306</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09423524458414251</v>
+        <v>0.09613203188124225</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0484245597769456</v>
+        <v>0.04842754561149969</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02973012010399315</v>
+        <v>0.0711599026517732</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04949255682778195</v>
+        <v>0.0254890817571852</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02973012010399315</v>
+        <v>0.02978633539995697</v>
       </c>
       <c r="K121" t="n">
         <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06159256689291606</v>
+        <v>0.06320829443331252</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04932895921761993</v>
+        <v>0.04931090609038421</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09606853242327396</v>
+        <v>0.09294341211228158</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04930500631834461</v>
+        <v>0.04930804644079968</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03100884485451035</v>
+        <v>0.07140635993902396</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05037635248542091</v>
+        <v>0.02594424393142065</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03100884485451035</v>
+        <v>0.02977115538685332</v>
       </c>
       <c r="K122" t="n">
         <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06056647855531952</v>
+        <v>0.06080292915953861</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05020983348936314</v>
+        <v>0.05019145798485535</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09230927454788307</v>
+        <v>0.09377382645325366</v>
       </c>
       <c r="O122" t="n">
-        <v>0.05018545285974362</v>
+        <v>0.05018854727009967</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02964444720928658</v>
+        <v>0.07164507103182467</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05126014814305987</v>
+        <v>0.0263994061056561</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02964444720928658</v>
+        <v>0.03101070537845618</v>
       </c>
       <c r="K123" t="n">
         <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06340684543728042</v>
+        <v>0.0623112533104167</v>
       </c>
       <c r="M123" t="n">
-        <v>0.05109070776110635</v>
+        <v>0.0510720098793265</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09706509869293029</v>
+        <v>0.09348094848791461</v>
       </c>
       <c r="O123" t="n">
-        <v>0.05106589940114264</v>
+        <v>0.05106904809939966</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02987905744344559</v>
+        <v>0.07187612977554707</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05214394380069883</v>
+        <v>0.02685456827989155</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02987905744344559</v>
+        <v>0.03061496178503498</v>
       </c>
       <c r="K124" t="n">
         <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06198869469375407</v>
+        <v>0.06374975554417356</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05197158203284957</v>
+        <v>0.05195256177379765</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0952320171340687</v>
+        <v>0.09272011730851198</v>
       </c>
       <c r="O124" t="n">
-        <v>0.05194634594254165</v>
+        <v>0.05194954892869966</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02992916412002281</v>
+        <v>0.0720996300155627</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0530277394583378</v>
+        <v>0.027309730454127</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02992916412002281</v>
+        <v>0.03129058608497785</v>
       </c>
       <c r="K125" t="n">
         <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0649184385448979</v>
+        <v>0.06192752038570168</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05285245630459278</v>
+        <v>0.05283311366826879</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09304272158227039</v>
+        <v>0.09455407736405608</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05282679248394066</v>
+        <v>0.05283004975799965</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0304426062046578</v>
+        <v>0.07231566559724317</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05391153511597677</v>
+        <v>0.02776489262836245</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0304426062046578</v>
+        <v>0.0306522225562625</v>
       </c>
       <c r="K126" t="n">
         <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06484585612336094</v>
+        <v>0.06361613348991732</v>
       </c>
       <c r="M126" t="n">
-        <v>0.053733330576336</v>
+        <v>0.05371366556273995</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09643865338810892</v>
+        <v>0.09675287775433533</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05370723902533967</v>
+        <v>0.05371055058729966</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03029321428736612</v>
+        <v>0.07252433036596014</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05479533077361572</v>
+        <v>0.0282200548025979</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03029321428736612</v>
+        <v>0.03127759401301353</v>
       </c>
       <c r="K127" t="n">
         <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06210828877967581</v>
+        <v>0.0613190097767593</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0546142048480792</v>
+        <v>0.05459421745721109</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0942141548201218</v>
+        <v>0.09903298580676512</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05458768556673867</v>
+        <v>0.05459105141659965</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03097225036630129</v>
+        <v>0.07272571816708523</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05567912643125469</v>
+        <v>0.02867521697683335</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03097225036630129</v>
+        <v>0.03062003727233861</v>
       </c>
       <c r="K128" t="n">
         <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06449697407390467</v>
+        <v>0.06420600413330202</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05549507911982241</v>
+        <v>0.05547476935168223</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09394028766628626</v>
+        <v>0.09640779792082926</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0554681321081377</v>
+        <v>0.05547155224589964</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03009845909591297</v>
+        <v>0.07291992284599007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05656292208889365</v>
+        <v>0.0291303791510688</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03009845909591297</v>
+        <v>0.03150468771892667</v>
       </c>
       <c r="K129" t="n">
         <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06421961198193482</v>
+        <v>0.06517387716989265</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05637595339156563</v>
+        <v>0.05635532124615338</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09707911623664173</v>
+        <v>0.09590762781771828</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05634857864953671</v>
+        <v>0.05635205307519963</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03073671689371882</v>
+        <v>0.07310703824804622</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05744671774653261</v>
+        <v>0.02958554132530425</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03073671689371882</v>
+        <v>0.03166760459885007</v>
       </c>
       <c r="K130" t="n">
         <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06268039097450345</v>
+        <v>0.0652586247628672</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05725682766330884</v>
+        <v>0.05723587314062453</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09333516633585071</v>
+        <v>0.09859824457616234</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05722902519093571</v>
+        <v>0.05723255390449962</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03069679375609727</v>
+        <v>0.07328715821862536</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05833051340417158</v>
+        <v>0.0300407034995397</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03069679375609727</v>
+        <v>0.03060014745447337</v>
       </c>
       <c r="K131" t="n">
         <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06258543013538403</v>
+        <v>0.06391154579305286</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05813770193505206</v>
+        <v>0.05811642503509567</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09297459771615058</v>
+        <v>0.09552285916575776</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05810947173233473</v>
+        <v>0.05811305473379962</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03156669762996257</v>
+        <v>0.07346037660309908</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05921430906181054</v>
+        <v>0.03049586567377515</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03156669762996257</v>
+        <v>0.0315155564800043</v>
       </c>
       <c r="K132" t="n">
         <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06313240624134925</v>
+        <v>0.06442284199750631</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05901857620679526</v>
+        <v>0.05899697692956681</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09847122234383049</v>
+        <v>0.09491631063906547</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05898991827373373</v>
+        <v>0.05899355556309961</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03049709992949633</v>
+        <v>0.07362678724683903</v>
       </c>
       <c r="G133" t="n">
-        <v>0.06009810471944951</v>
+        <v>0.0309510278480106</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03049709992949633</v>
+        <v>0.03081601098124921</v>
       </c>
       <c r="K133" t="n">
         <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06325768007952981</v>
+        <v>0.06270044216210524</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05989945047853848</v>
+        <v>0.05987752882403797</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09411781942531089</v>
+        <v>0.09589088613081898</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05987036481513274</v>
+        <v>0.05987405639239961</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03077511283007366</v>
+        <v>0.07378648399521678</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06098190037708846</v>
+        <v>0.03140619002224605</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03077511283007366</v>
+        <v>0.03107008442459903</v>
       </c>
       <c r="K134" t="n">
         <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06223343888575342</v>
+        <v>0.06547513909531269</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06078032475028169</v>
+        <v>0.06075808071850911</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0951424950269229</v>
+        <v>0.1000166200714681</v>
       </c>
       <c r="O134" t="n">
-        <v>0.06075081135653176</v>
+        <v>0.0607545572216996</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03170834019749645</v>
+        <v>0.07393956069360402</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06186569603472743</v>
+        <v>0.0318613521964815</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03170834019749645</v>
+        <v>0.03108861280295208</v>
       </c>
       <c r="K135" t="n">
         <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06510184062843902</v>
+        <v>0.0656941906397869</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06166119902202491</v>
+        <v>0.06163863261298026</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09757400505035474</v>
+        <v>0.09890229428056863</v>
       </c>
       <c r="O135" t="n">
-        <v>0.06163125789793077</v>
+        <v>0.0616350580509996</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03081658900384808</v>
+        <v>0.07408611118737231</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06274949169236639</v>
+        <v>0.03231651437071695</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03081658900384808</v>
+        <v>0.0313399072280378</v>
       </c>
       <c r="K136" t="n">
         <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06611361469629293</v>
+        <v>0.06241637672360445</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06254207329376812</v>
+        <v>0.06251918450745141</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09633548446302503</v>
+        <v>0.0992073695404016</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06251170443932978</v>
+        <v>0.06251555888029958</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03137739030104446</v>
+        <v>0.07422622932189331</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06363328735000535</v>
+        <v>0.0327716765449524</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03137739030104446</v>
+        <v>0.03097310846488982</v>
       </c>
       <c r="K137" t="n">
         <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06556015770329807</v>
+        <v>0.06485790635189492</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06342294756551134</v>
+        <v>0.06339973640192255</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09442868890912981</v>
+        <v>0.100194875082734</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0633921509807288</v>
+        <v>0.06339605970959959</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03090073583304233</v>
+        <v>0.07436000894253864</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06451708300764432</v>
+        <v>0.03322683871918785</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03090073583304233</v>
+        <v>0.03088795489888094</v>
       </c>
       <c r="K138" t="n">
         <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06468175723268776</v>
+        <v>0.06334197684878481</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06430382183725454</v>
+        <v>0.06428028829639369</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09559617467623854</v>
+        <v>0.09870585578137586</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0642725975221278</v>
+        <v>0.06427656053889957</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03155864367392711</v>
+        <v>0.07448754389467985</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06540087866528328</v>
+        <v>0.0336820008934233</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03155864367392711</v>
+        <v>0.03186595933471087</v>
       </c>
       <c r="K139" t="n">
         <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06324985230609734</v>
+        <v>0.06294083096133973</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06518469610899776</v>
+        <v>0.06516084019086485</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09623640230979907</v>
+        <v>0.09536727727037264</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0651530440635268</v>
+        <v>0.06515706136819958</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03159324377430341</v>
+        <v>0.07460892802368863</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06628467432292225</v>
+        <v>0.03413716306765874</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03159324377430341</v>
+        <v>0.03210521234952809</v>
       </c>
       <c r="K140" t="n">
         <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06476888611199491</v>
+        <v>0.0652070092373789</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06606557038074097</v>
+        <v>0.06604139208533599</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09719711908732942</v>
+        <v>0.1012268425557096</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06603349060492583</v>
+        <v>0.06603756219749957</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03113846874987028</v>
+        <v>0.07472425517493661</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06716846998056121</v>
+        <v>0.0345923252418942</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03113846874987028</v>
+        <v>0.03183595108013901</v>
       </c>
       <c r="K141" t="n">
         <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06276998578796036</v>
+        <v>0.06607311154756371</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06694644465248419</v>
+        <v>0.06692194397980714</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09879805708875139</v>
+        <v>0.09834319990322826</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06691393714632483</v>
+        <v>0.06691806302679956</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0321806148660523</v>
+        <v>0.07483361919379539</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06805226563820017</v>
+        <v>0.03504748741612965</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0321806148660523</v>
+        <v>0.03150703387347206</v>
       </c>
       <c r="K142" t="n">
         <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06674835002275947</v>
+        <v>0.06397036263918052</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0678273189242274</v>
+        <v>0.06780249587427828</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1004746173188322</v>
+        <v>0.1006778347464266</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06779438368772384</v>
+        <v>0.06779856385609956</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03228613169788878</v>
+        <v>0.07493711392563655</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06893606129583914</v>
+        <v>0.0355026495903651</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03228613169788878</v>
+        <v>0.0309378485072084</v>
       </c>
       <c r="K143" t="n">
         <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06412856200151576</v>
+        <v>0.06496827744083983</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06870819319597062</v>
+        <v>0.06868304776874942</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09768700302907524</v>
+        <v>0.09980884556283087</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06867483022912287</v>
+        <v>0.06867906468539955</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03197856654253733</v>
+        <v>0.07503483321583179</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0698198569534781</v>
+        <v>0.03595781176460055</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03197856654253733</v>
+        <v>0.03218931532490421</v>
       </c>
       <c r="K144" t="n">
         <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06585775182941847</v>
+        <v>0.0647363896518755</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06958906746771382</v>
+        <v>0.06956359966322057</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09703510125686893</v>
+        <v>0.1022784381720196</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06955527677052187</v>
+        <v>0.06955956551469955</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03212848794488055</v>
+        <v>0.07512687090975265</v>
       </c>
       <c r="G145" t="n">
-        <v>0.07070365261111707</v>
+        <v>0.036412973938836</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03212848794488055</v>
+        <v>0.03193387307748337</v>
       </c>
       <c r="K145" t="n">
         <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0640900739332998</v>
+        <v>0.06651518297749376</v>
       </c>
       <c r="M145" t="n">
-        <v>0.07046994173945703</v>
+        <v>0.07044415155769172</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1028121226931656</v>
+        <v>0.09900969576104435</v>
       </c>
       <c r="O145" t="n">
-        <v>0.07043572331192087</v>
+        <v>0.07044006634399955</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03217999577266396</v>
+        <v>0.0752133208527708</v>
       </c>
       <c r="G146" t="n">
-        <v>0.07158744826875603</v>
+        <v>0.03686813611307145</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03217999577266396</v>
+        <v>0.03163946556503851</v>
       </c>
       <c r="K146" t="n">
         <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06729672206744325</v>
+        <v>0.06753164420202798</v>
       </c>
       <c r="M146" t="n">
-        <v>0.07135081601120025</v>
+        <v>0.07132470345216287</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09747788449726591</v>
+        <v>0.09737160708126635</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0713161698533199</v>
+        <v>0.07132056717329953</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03127067816936374</v>
+        <v>0.07529427689025785</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07247124392639499</v>
+        <v>0.0373232982873069</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03127067816936374</v>
+        <v>0.03189026951838919</v>
       </c>
       <c r="K147" t="n">
         <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.066269640255185</v>
+        <v>0.06668292597310979</v>
       </c>
       <c r="M147" t="n">
-        <v>0.07223169028294346</v>
+        <v>0.07220525534663402</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09975397745162529</v>
+        <v>0.1032617453144427</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0721966163947189</v>
+        <v>0.07220106800259952</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03174043345585757</v>
+        <v>0.07536983286758542</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07335503958403396</v>
+        <v>0.03777846046154235</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03174043345585757</v>
+        <v>0.0313599909978976</v>
       </c>
       <c r="K148" t="n">
         <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06750076071268277</v>
+        <v>0.06736834098169073</v>
       </c>
       <c r="M148" t="n">
-        <v>0.07311256455468668</v>
+        <v>0.07308580724110517</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1017360873142473</v>
+        <v>0.09800895047502978</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0730770629361179</v>
+        <v>0.07308156883189952</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03123726761021774</v>
+        <v>0.07544008263012511</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07423883524167292</v>
+        <v>0.0382336226357778</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03123726761021774</v>
+        <v>0.03234834438742068</v>
       </c>
       <c r="K149" t="n">
         <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06370829822567722</v>
+        <v>0.06622391063629041</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07399343882642989</v>
+        <v>0.07396635913557631</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09907017075830649</v>
+        <v>0.09750227711116521</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07395750947751693</v>
+        <v>0.07396206966119952</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03178212206510977</v>
+        <v>0.07550512002324859</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07512263089931188</v>
+        <v>0.03868878481001325</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03178212206510977</v>
+        <v>0.03159463841895421</v>
       </c>
       <c r="K150" t="n">
         <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06446114872586689</v>
+        <v>0.06762673211886566</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07487431309817309</v>
+        <v>0.07484691103004745</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09967384334857138</v>
+        <v>0.09716984260604039</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07483795601891594</v>
+        <v>0.07484257049049951</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03281061520423705</v>
+        <v>0.07556503889232744</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07600642655695085</v>
+        <v>0.0391439469842487</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03281061520423705</v>
+        <v>0.03157902597133415</v>
       </c>
       <c r="K151" t="n">
         <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06632837728238891</v>
+        <v>0.06694976460395716</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07575518736991631</v>
+        <v>0.0757274629245186</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09916468184721716</v>
+        <v>0.09886342315286406</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07571840256031494</v>
+        <v>0.0757230713197995</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03174373882564953</v>
+        <v>0.07561993308273328</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0768902222145898</v>
+        <v>0.03959910915848415</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03174373882564953</v>
+        <v>0.0322429064437581</v>
       </c>
       <c r="K152" t="n">
         <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06506702135614956</v>
+        <v>0.06674437049611179</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07663606164165952</v>
+        <v>0.07660801481898975</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1015703557031945</v>
+        <v>0.1019937035091383</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07659884910171395</v>
+        <v>0.07660357214909951</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03280648338178449</v>
+        <v>0.07566989643983775</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07777401787222878</v>
+        <v>0.0400542713327196</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03280648338178449</v>
+        <v>0.03143641948122465</v>
       </c>
       <c r="K153" t="n">
         <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06603438288498065</v>
+        <v>0.06528581869563943</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07751693591340274</v>
+        <v>0.0774885667134609</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09791656790168224</v>
+        <v>0.09873854180820135</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07747929564311297</v>
+        <v>0.07748407297839949</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03278031956194351</v>
+        <v>0.07571502280901245</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07865781352986773</v>
+        <v>0.04050943350695504</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03278031956194351</v>
+        <v>0.03226847142259773</v>
       </c>
       <c r="K154" t="n">
         <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06567402452033563</v>
+        <v>0.06605909148848146</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07839781018514595</v>
+        <v>0.07836911860793204</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1004148479935287</v>
+        <v>0.1018236894160201</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07835974218451197</v>
+        <v>0.0783645738076995</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03226011357277891</v>
+        <v>0.07575540603562901</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0795416091875067</v>
+        <v>0.0409645956811905</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03226011357277891</v>
+        <v>0.03179137379730636</v>
       </c>
       <c r="K155" t="n">
         <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06897374899688336</v>
+        <v>0.06569000034985181</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07927868445688917</v>
+        <v>0.07924967050240318</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1040569205505334</v>
+        <v>0.1006882345447052</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07924018872591099</v>
+        <v>0.07924507463699948</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03272004315341961</v>
+        <v>0.07579113996505907</v>
       </c>
       <c r="G156" t="n">
-        <v>0.08042540484514565</v>
+        <v>0.04141975785542595</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03272004315341961</v>
+        <v>0.03266230584617194</v>
       </c>
       <c r="K156" t="n">
         <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06664540536679103</v>
+        <v>0.06520442411329683</v>
       </c>
       <c r="M156" t="n">
-        <v>0.08015955872863238</v>
+        <v>0.08013022239687433</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09787715671093872</v>
+        <v>0.1004390657353625</v>
       </c>
       <c r="O156" t="n">
-        <v>0.08012063526731</v>
+        <v>0.08012557546629948</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03227292867897145</v>
+        <v>0.07582231844267422</v>
       </c>
       <c r="G157" t="n">
-        <v>0.08130920050278463</v>
+        <v>0.0418749200296614</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03227292867897145</v>
+        <v>0.03264434539150694</v>
       </c>
       <c r="K157" t="n">
         <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06708385893122817</v>
+        <v>0.06531578967446</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0810404330003756</v>
+        <v>0.08101077429134547</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1022394328672658</v>
+        <v>0.1009150343229989</v>
       </c>
       <c r="O157" t="n">
-        <v>0.08100108180870901</v>
+        <v>0.08100607629559947</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03203732008087465</v>
+        <v>0.07584903531384607</v>
       </c>
       <c r="G158" t="n">
-        <v>0.08219299616042358</v>
+        <v>0.04233008220389685</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03203732008087465</v>
+        <v>0.03198865524814909</v>
       </c>
       <c r="K158" t="n">
         <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06737785052452386</v>
+        <v>0.06679975237497995</v>
       </c>
       <c r="M158" t="n">
-        <v>0.08192130727211881</v>
+        <v>0.08189132618581663</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0994586488540754</v>
+        <v>0.1040909638235226</v>
       </c>
       <c r="O158" t="n">
-        <v>0.08188152835010802</v>
+        <v>0.08188657712489947</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03209749085406773</v>
+        <v>0.07587138442394629</v>
       </c>
       <c r="G159" t="n">
-        <v>0.08307679181806256</v>
+        <v>0.0427852443781323</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03209749085406773</v>
+        <v>0.03305782878371408</v>
       </c>
       <c r="K159" t="n">
         <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06787061836820385</v>
+        <v>0.06535375459729198</v>
       </c>
       <c r="M159" t="n">
-        <v>0.08280218154386203</v>
+        <v>0.08277187808028778</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1010085673297903</v>
+        <v>0.1039012612911138</v>
       </c>
       <c r="O159" t="n">
-        <v>0.08276197489150704</v>
+        <v>0.08276707795419946</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03346768441128252</v>
+        <v>0.07588945961834649</v>
       </c>
       <c r="G160" t="n">
-        <v>0.08396058747570151</v>
+        <v>0.04324040655236775</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03346768441128252</v>
+        <v>0.03285571486343401</v>
       </c>
       <c r="K160" t="n">
         <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06745790522002557</v>
+        <v>0.06545715461046828</v>
       </c>
       <c r="M160" t="n">
-        <v>0.08368305581560524</v>
+        <v>0.08365242997475893</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09941893567065124</v>
+        <v>0.09821351754848107</v>
       </c>
       <c r="O160" t="n">
-        <v>0.08364242143290604</v>
+        <v>0.08364757878349946</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03180557701741471</v>
+        <v>0.07590335474241824</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08484438313334049</v>
+        <v>0.0436955687266032</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03180557701741471</v>
+        <v>0.03217865543321541</v>
       </c>
       <c r="K161" t="n">
         <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.065433164381828</v>
+        <v>0.06641616287674626</v>
       </c>
       <c r="M161" t="n">
-        <v>0.08456393008734846</v>
+        <v>0.08453298186923007</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1037777447861216</v>
+        <v>0.09898473819124443</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08452286797430505</v>
+        <v>0.08452807961279944</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03265306823747384</v>
+        <v>0.07591316364153319</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08572817879097944</v>
+        <v>0.04415073090083865</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03265306823747384</v>
+        <v>0.03179956321349844</v>
       </c>
       <c r="K162" t="n">
         <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06559501564992481</v>
+        <v>0.0686503308690059</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08544480435909166</v>
+        <v>0.08541353376370121</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09897413488285178</v>
+        <v>0.1016651969497072</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08540331451570407</v>
+        <v>0.08540858044209944</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03344082232030614</v>
+        <v>0.07591898016106301</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0866119744486184</v>
+        <v>0.0446058930750741</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03344082232030614</v>
+        <v>0.03267085834372048</v>
       </c>
       <c r="K163" t="n">
         <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06700906297717818</v>
+        <v>0.06857280753952838</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08632567863083487</v>
+        <v>0.08629408565817236</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09834897124905984</v>
+        <v>0.09967700970242316</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08628376105710307</v>
+        <v>0.08628908127139943</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0333267116148267</v>
+        <v>0.07592089814637926</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08749577010625736</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0333267116148267</v>
+        <v>0.03337542331997491</v>
       </c>
       <c r="K164" t="n">
         <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06557852220445018</v>
+        <v>0.06654085871388804</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08720655290257809</v>
+        <v>0.0871746375526435</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1021428369400935</v>
+        <v>0.1045880692108112</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08716420759850207</v>
+        <v>0.08716958210069943</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03239614376127771</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08837956576389633</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03239614376127771</v>
+        <v>0.03257909706026584</v>
       </c>
       <c r="K165" t="n">
         <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06834047154239045</v>
+        <v>0.06917756674938166</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0880874271743213</v>
+        <v>0.08805518944711466</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1050134550915982</v>
+        <v>0.09973542624698656</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0880446541399011</v>
+        <v>0.08805008292999943</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03322559133938233</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08926336142153529</v>
+        <v>0.04509360417145135</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03322559133938233</v>
+        <v>0.03304298719460033</v>
       </c>
       <c r="K166" t="n">
         <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06910316269414943</v>
+        <v>0.0658446555021161</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08896830144606452</v>
+        <v>0.0889357413415858</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1047408833001487</v>
+        <v>0.1063465487411608</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08892510068130011</v>
+        <v>0.08893058375929941</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03302370064852886</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09014715707917426</v>
+        <v>0.04512528291965202</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03302370064852886</v>
+        <v>0.03222744544214931</v>
       </c>
       <c r="K167" t="n">
         <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0675304320390856</v>
+        <v>0.06913014579250595</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08984917571780772</v>
+        <v>0.08981629323605694</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1050480199527076</v>
+        <v>0.1025041290352496</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08980554722269911</v>
+        <v>0.08981108458859942</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03302118247984938</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09103095273681322</v>
+        <v>0.04515609149391159</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03302118247984938</v>
+        <v>0.03288822801957203</v>
       </c>
       <c r="K168" t="n">
         <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06983049710557265</v>
+        <v>0.06639438926821906</v>
       </c>
       <c r="M168" t="n">
-        <v>0.09073004998955093</v>
+        <v>0.09069684513052809</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1003000773199471</v>
+        <v>0.1052635595554815</v>
       </c>
       <c r="O168" t="n">
-        <v>0.09068599376409814</v>
+        <v>0.0906915854178994</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03332502239718776</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09191474839445218</v>
+        <v>0.04518602989423004</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03332502239718776</v>
+        <v>0.03248528247461999</v>
       </c>
       <c r="K169" t="n">
         <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07024014217142663</v>
+        <v>0.06655660538841537</v>
       </c>
       <c r="M169" t="n">
-        <v>0.09161092426129415</v>
+        <v>0.09157739702499923</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1038810244407021</v>
+        <v>0.1041994598750526</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09156644030549714</v>
+        <v>0.09157208624719941</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03246344643039573</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09279854405209115</v>
+        <v>0.04521509812060738</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03246344643039573</v>
+        <v>0.03368630567507039</v>
       </c>
       <c r="K170" t="n">
         <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06672543039062889</v>
+        <v>0.06819217789736604</v>
       </c>
       <c r="M170" t="n">
-        <v>0.09249179853303736</v>
+        <v>0.09245794891947039</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1060563091967285</v>
+        <v>0.1059140212641265</v>
       </c>
       <c r="O170" t="n">
-        <v>0.09244688684689614</v>
+        <v>0.09245258707649939</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03250756802483724</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09368233970973011</v>
+        <v>0.04524329617304361</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03250756802483724</v>
+        <v>0.03352287587583135</v>
       </c>
       <c r="K171" t="n">
         <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07023105059476659</v>
+        <v>0.06661558760828956</v>
       </c>
       <c r="M171" t="n">
-        <v>0.09337267280478058</v>
+        <v>0.09333850081394153</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1019834665113226</v>
+        <v>0.1021180774322189</v>
       </c>
       <c r="O171" t="n">
-        <v>0.09332733338829517</v>
+        <v>0.09333308790579939</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03330853317783951</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09456613536736906</v>
+        <v>0.04527062405153872</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03330853317783951</v>
+        <v>0.03389978726176861</v>
       </c>
       <c r="K172" t="n">
         <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06821161301654366</v>
+        <v>0.0686550515964845</v>
       </c>
       <c r="M172" t="n">
-        <v>0.09425354707652379</v>
+        <v>0.09421905270841269</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1036972720602573</v>
+        <v>0.1031009607353651</v>
       </c>
       <c r="O172" t="n">
-        <v>0.09420777992969417</v>
+        <v>0.09421358873509939</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03372580271899862</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09544993102500804</v>
+        <v>0.04529708175609272</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03372580271899862</v>
+        <v>0.0323843709920201</v>
       </c>
       <c r="K173" t="n">
         <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06942608616019486</v>
+        <v>0.0688196950476942</v>
       </c>
       <c r="M173" t="n">
-        <v>0.095134421348267</v>
+        <v>0.09509960460288383</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1021117192349976</v>
+        <v>0.1040670729931812</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09508822647109318</v>
+        <v>0.09509408956439938</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03394244929695098</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09633372668264699</v>
+        <v>0.04532266928670559</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03394244929695098</v>
+        <v>0.03345905963612349</v>
       </c>
       <c r="K174" t="n">
         <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06940776115368258</v>
+        <v>0.06694438744482337</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09601529562001021</v>
+        <v>0.09598015649735497</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1027869946135149</v>
+        <v>0.1033239103919334</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09596867301249219</v>
+        <v>0.09597459039369938</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03300733993209125</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09721752234028597</v>
+        <v>0.04534738664337736</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03300733993209125</v>
+        <v>0.03357461364592149</v>
       </c>
       <c r="K175" t="n">
         <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06634498085155019</v>
+        <v>0.06822999978164951</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09689616989175343</v>
+        <v>0.09686070839182612</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1032215199306016</v>
+        <v>0.1006947183035951</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09684911955389121</v>
+        <v>0.09685509122299937</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03402288285376344</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09810131799792492</v>
+        <v>0.04537123382610801</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03402288285376344</v>
+        <v>0.03295474125492126</v>
       </c>
       <c r="K176" t="n">
         <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06855136944241597</v>
+        <v>0.0682846137196963</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09777704416349664</v>
+        <v>0.09774126028629726</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1015664378443014</v>
+        <v>0.1027646683555745</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09772956609529021</v>
+        <v>0.09773559205229936</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03279285685549438</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09898511365556389</v>
+        <v>0.04539421083489756</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03279285685549438</v>
+        <v>0.03250920740359127</v>
       </c>
       <c r="K177" t="n">
         <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07063799109118296</v>
+        <v>0.06696722367680172</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09865791843523986</v>
+        <v>0.09862181218076842</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1030086000688808</v>
+        <v>0.1031498139983528</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09861001263668923</v>
+        <v>0.09861609288159935</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03280443908161072</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09986890931320284</v>
+        <v>0.04541631766974599</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03280443908161072</v>
+        <v>0.03336441930918776</v>
       </c>
       <c r="K178" t="n">
         <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.066955318015754</v>
+        <v>0.06730544546243622</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09953879270698307</v>
+        <v>0.09950236407523956</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1045839665076605</v>
+        <v>0.1021328636936216</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09949045917808824</v>
+        <v>0.09949659371089935</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03423564146526653</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1007527049708418</v>
+        <v>0.04543755433065329</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03423564146526653</v>
+        <v>0.03282363755655496</v>
       </c>
       <c r="K179" t="n">
         <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06786546427388362</v>
+        <v>0.06737317252989605</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1004196669787263</v>
+        <v>0.1003829159697107</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1043377510172326</v>
+        <v>0.1006986071760711</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1003709057194872</v>
+        <v>0.1003770945401993</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0330262346642165</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1016365006284808</v>
+        <v>0.04545792081761949</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0330262346642165</v>
+        <v>0.03292532631351731</v>
       </c>
       <c r="K180" t="n">
         <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07114330370148067</v>
+        <v>0.06989036389572667</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1013005412504695</v>
+        <v>0.1012634678641818</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1075467021801131</v>
+        <v>0.1020771365318748</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1012513522608863</v>
+        <v>0.1012575953694993</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03330294439682634</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1025202962861197</v>
+        <v>0.04547741713064456</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03330294439682634</v>
+        <v>0.03347018373348733</v>
       </c>
       <c r="K181" t="n">
         <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07110095121821733</v>
+        <v>0.07060824227267665</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1021814155222127</v>
+        <v>0.102144019758653</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1035629139025512</v>
+        <v>0.1041499735847795</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1021317988022853</v>
+        <v>0.1021380961987993</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03359399655068815</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1034040919437587</v>
+        <v>0.04549604326972854</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03359399655068815</v>
+        <v>0.03273352444332339</v>
       </c>
       <c r="K182" t="n">
         <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07098587309379117</v>
+        <v>0.07043428156968953</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1030622897939559</v>
+        <v>0.1030245716531241</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1062758988770133</v>
+        <v>0.1052193392250071</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1030122453436843</v>
+        <v>0.1030185970280993</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03412781484143888</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1042878876013977</v>
+        <v>0.04551379923487139</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03412781484143888</v>
+        <v>0.03325791939078609</v>
       </c>
       <c r="K183" t="n">
         <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06866605481803012</v>
+        <v>0.06722920478667824</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1039431640656991</v>
+        <v>0.1039051235475953</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1084725488535889</v>
+        <v>0.1055012493612433</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1038926918850833</v>
+        <v>0.1038990978573993</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03379111179372714</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1051716832590366</v>
+        <v>0.04553068502607314</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03379111179372714</v>
+        <v>0.0333888226770498</v>
       </c>
       <c r="K184" t="n">
         <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06913786213888207</v>
+        <v>0.06745663532016608</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1048240383374423</v>
+        <v>0.1047856754420664</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1043430691890148</v>
+        <v>0.1076496973652133</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1047731384264823</v>
+        <v>0.1047795986866993</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03392058340382638</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1060554789166756</v>
+        <v>0.04554670064333376</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03392058340382638</v>
+        <v>0.03372895782657172</v>
       </c>
       <c r="K185" t="n">
         <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06857287048101451</v>
+        <v>0.07009947856395685</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1057049126091856</v>
+        <v>0.1056662273365376</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1016477576986273</v>
+        <v>0.1059388376677468</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1056535849678813</v>
+        <v>0.1056600995159993</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03392370943206595</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1069392745743146</v>
+        <v>0.04556184608665328</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03392370943206595</v>
+        <v>0.03296032692113</v>
       </c>
       <c r="K186" t="n">
         <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06735126781968634</v>
+        <v>0.06844873703437451</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1065857868809288</v>
+        <v>0.1065467792310087</v>
       </c>
       <c r="N186" t="n">
-        <v>0.105759603709886</v>
+        <v>0.1078743266829958</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1065340315092803</v>
+        <v>0.1065406003452993</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03383340622929086</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1078230702319535</v>
+        <v>0.04557612135603167</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03383340622929086</v>
+        <v>0.03290435208173213</v>
       </c>
       <c r="K187" t="n">
         <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06943425525385513</v>
+        <v>0.06818576641371371</v>
       </c>
       <c r="M187" t="n">
-        <v>0.107466661152672</v>
+        <v>0.1074273311254799</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1054356803911336</v>
+        <v>0.1018505501828978</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1074144780506793</v>
+        <v>0.1074211011745993</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03297897011073218</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1087068658895925</v>
+        <v>0.04558952645146895</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03297897011073218</v>
+        <v>0.03379148271888599</v>
       </c>
       <c r="K188" t="n">
         <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06725716402052725</v>
+        <v>0.0676146148101</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1083475354244152</v>
+        <v>0.108307883019951</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1081108727411747</v>
+        <v>0.1027311972276722</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1082949245920783</v>
+        <v>0.1083016020038993</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03445438314511087</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1095906615472314</v>
+        <v>0.04560206137296512</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03445438314511087</v>
+        <v>0.03403575531631589</v>
       </c>
       <c r="K189" t="n">
         <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06706447446163333</v>
+        <v>0.07169798252716636</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1092284096961584</v>
+        <v>0.1091884349144222</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1042154493558597</v>
+        <v>0.1054756114942292</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1091753711334773</v>
+        <v>0.1091821028331993</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03448485883012507</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1104744572048704</v>
+        <v>0.04561372612052018</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03448485883012507</v>
+        <v>0.0344777657846662</v>
       </c>
       <c r="K190" t="n">
         <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07028120136235946</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1101092839679016</v>
+        <v>0.1100689868088933</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1085514485870611</v>
+        <v>0.1083222854483563</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1100558176748764</v>
+        <v>0.1100626036624993</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03448393637704623</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1113582528625094</v>
+        <v>0.04562452069413412</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03448393637704623</v>
+        <v>0.03383659364135358</v>
       </c>
       <c r="K191" t="n">
         <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07075364883600022</v>
+        <v>0.07021931352829033</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1109901582396448</v>
+        <v>0.1109495387033645</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1059535414002939</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1109362642162754</v>
+        <v>0.1109431044917993</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03289628560048977</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1122420485201483</v>
+        <v>0.04563444509380696</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03289628560048977</v>
+        <v>0.03445505530394684</v>
       </c>
       <c r="K192" t="n">
         <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06957292879172541</v>
+        <v>0.06881228113366808</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1118710325113881</v>
+        <v>0.1118300905978356</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1023407767349178</v>
+        <v>0.1045693962236177</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1118167107576744</v>
+        <v>0.1118236053210993</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03369713433842605</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1131258441777873</v>
+        <v>0.04564349931953866</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03369713433842605</v>
+        <v>0.03345370670871846</v>
       </c>
       <c r="K193" t="n">
         <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06804736174855613</v>
+        <v>0.06890649274833555</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1127519067831313</v>
+        <v>0.1127106424923068</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1073675078113794</v>
+        <v>0.1087405062282216</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1126971572990734</v>
+        <v>0.1127041061503993</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03364551073858263</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1140096398354263</v>
+        <v>0.04565168337132926</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03364551073858263</v>
+        <v>0.03368749226809323</v>
       </c>
       <c r="K194" t="n">
         <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.067635172094208</v>
+        <v>0.06989461588055332</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1136327810548745</v>
+        <v>0.1135911943867779</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1066338856810414</v>
+        <v>0.1083686693106171</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1135776038404724</v>
+        <v>0.1135846069796993</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03422062413385581</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1148934354930652</v>
+        <v>0.04565899724917875</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03422062413385581</v>
+        <v>0.03435500087758753</v>
       </c>
       <c r="K195" t="n">
         <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06897925721390552</v>
+        <v>0.06885416139304071</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1145136553266177</v>
+        <v>0.1144717462812491</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1049516008333798</v>
+        <v>0.1093745668898284</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1144580503818714</v>
+        <v>0.1144651078089992</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03326091299319042</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1157772311507042</v>
+        <v>0.04566544095308712</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03326091299319042</v>
+        <v>0.03328611532504365</v>
       </c>
       <c r="K196" t="n">
         <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06818850539272345</v>
+        <v>0.07094494471984586</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1153945295983609</v>
+        <v>0.1153522981757202</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1056593584055328</v>
+        <v>0.1050628953750363</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1153384969232704</v>
+        <v>0.1153456086382992</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0332493336894807</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1166610268083432</v>
+        <v>0.04567101448305436</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0332493336894807</v>
+        <v>0.03472826127586529</v>
       </c>
       <c r="K197" t="n">
         <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07044742541700158</v>
+        <v>0.06892938621147432</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1162754038701041</v>
+        <v>0.1162328500701913</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1032424020229271</v>
+        <v>0.1052673220203423</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1162189434646695</v>
+        <v>0.1162261094675992</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03436306189623189</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1175448224659821</v>
+        <v>0.04567571783908052</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03436306189623189</v>
+        <v>0.03382599113618366</v>
       </c>
       <c r="K198" t="n">
         <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06833849063674877</v>
+        <v>0.07182904971242976</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1171562781418473</v>
+        <v>0.1171134019646625</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1061913423005659</v>
+        <v>0.1082925593189342</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1170993900060685</v>
+        <v>0.1171066102968992</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03437937762993588</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1184286181236211</v>
+        <v>0.04567955102116555</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03437937762993588</v>
+        <v>0.03332004466911659</v>
       </c>
       <c r="K199" t="n">
         <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06797241356636852</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1180371524135905</v>
+        <v>0.1179939538591336</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1045833431823063</v>
+        <v>0.1061731777091316</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1179798365474675</v>
+        <v>0.1179871111261992</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03438273687046293</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.11931241378126</v>
+        <v>0.04568251402930946</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03438273687046293</v>
+        <v>0.03463410948281297</v>
       </c>
       <c r="K200" t="n">
         <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06863617446874887</v>
+        <v>0.06938624565753143</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1189180266853338</v>
+        <v>0.1188745057536048</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1029901942023102</v>
+        <v>0.1033751339129906</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1188602830888665</v>
+        <v>0.1188676119554992</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03386808697413927</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.120196209438899</v>
+        <v>0.04568460686351226</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03386808697413927</v>
+        <v>0.03352973422915177</v>
       </c>
       <c r="K201" t="n">
         <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07118904704706711</v>
+        <v>0.06867131589004166</v>
       </c>
       <c r="M201" t="n">
-        <v>0.119798900957077</v>
+        <v>0.1197550576480759</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1063940936893329</v>
+        <v>0.103448220683824</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1197407296302655</v>
+        <v>0.1197481127847992</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03335960647542137</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.121080005096538</v>
+        <v>0.04568582952377395</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03335960647542137</v>
+        <v>0.03481328055415393</v>
       </c>
       <c r="K202" t="n">
         <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07030800512503826</v>
+        <v>0.07132610684238433</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1206797752288202</v>
+        <v>0.1206356095425471</v>
       </c>
       <c r="N202" t="n">
-        <v>0.10659686875805</v>
+        <v>0.1027092373132662</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1206211761716645</v>
+        <v>0.1206286136140992</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03437104132386112</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1219638007541769</v>
+        <v>0.04568618201009451</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03437104132386112</v>
+        <v>0.03403539153263239</v>
       </c>
       <c r="K203" t="n">
         <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07205107846840228</v>
+        <v>0.07012244866418715</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1215606495005634</v>
+        <v>0.1215161614370182</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1078260338666945</v>
+        <v>0.103567561508673</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1215016227130635</v>
+        <v>0.1215091144433992</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03445436639482888</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1228475964118159</v>
+        <v>0.04568566432247397</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03445436639482888</v>
+        <v>0.03344418324351985</v>
       </c>
       <c r="K204" t="n">
         <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06979039434379652</v>
+        <v>0.07096302796952514</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1224415237723066</v>
+        <v>0.1223967133314894</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1053448315573425</v>
+        <v>0.1080641289370952</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1223820692544625</v>
+        <v>0.1223896152726992</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03432094629798159</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1237313920694549</v>
+        <v>0.04568427646091231</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03432094629798159</v>
+        <v>0.03417251180960169</v>
       </c>
       <c r="K205" t="n">
         <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06834444731011305</v>
+        <v>0.07008903374796108</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1233223980440498</v>
+        <v>0.1232772652259605</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1032913672440379</v>
+        <v>0.10571763238437</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1232625157958615</v>
+        <v>0.1232701161019992</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03391560897026639</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1246151877270938</v>
+        <v>0.04568201842540955</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03391560897026639</v>
+        <v>0.03319128230045512</v>
       </c>
       <c r="K206" t="n">
         <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07045468320498113</v>
+        <v>0.07049523322844142</v>
       </c>
       <c r="M206" t="n">
-        <v>0.124203272315793</v>
+        <v>0.1241578171204317</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1056259446375437</v>
+        <v>0.1092587229147306</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1241429623372605</v>
+        <v>0.1241506169312992</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03336977836167766</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1254989833847328</v>
+        <v>0.04567889021596566</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03336977836167766</v>
+        <v>0.03403421872807175</v>
       </c>
       <c r="K207" t="n">
         <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07118716073627623</v>
+        <v>0.06883929757986978</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1250841465875362</v>
+        <v>0.1250383690149028</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1080749260034449</v>
+        <v>0.1094235982414946</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1250234088786596</v>
+        <v>0.1250311177605992</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03353346284570936</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1263827790423717</v>
+        <v>0.04567489183258067</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03353346284570936</v>
+        <v>0.03399073338495021</v>
       </c>
       <c r="K208" t="n">
         <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07071189305288367</v>
+        <v>0.06943439839774412</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1259650208592794</v>
+        <v>0.125918920909374</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1042758017038961</v>
+        <v>0.1050112858897881</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1259038554200586</v>
+        <v>0.1259116185898992</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03379203609185573</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1272665747000107</v>
+        <v>0.04567002327525456</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03379203609185573</v>
+        <v>0.03355603558964344</v>
       </c>
       <c r="K209" t="n">
         <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07003876564138875</v>
+        <v>0.06829337876297004</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1268458951310227</v>
+        <v>0.1267994728038451</v>
       </c>
       <c r="N209" t="n">
-        <v>0.108631356306986</v>
+        <v>0.1078096889312642</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1267843019614576</v>
+        <v>0.1267921194191992</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03467709097630738</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1281503703576497</v>
+        <v>0.04566428454398732</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03467709097630738</v>
+        <v>0.03385932138006069</v>
       </c>
       <c r="K210" t="n">
         <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07118256497151246</v>
+        <v>0.06967202550247426</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1277267694027659</v>
+        <v>0.1276800246983162</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1093159739913543</v>
+        <v>0.1076585399534132</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1276647485028566</v>
+        <v>0.1276726202484992</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03322509919683832</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1290341660152886</v>
+        <v>0.04565767563877897</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03322509919683832</v>
+        <v>0.03396716973992986</v>
       </c>
       <c r="K211" t="n">
         <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06906158874060919</v>
+        <v>0.06906367964161514</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1286076436745091</v>
+        <v>0.1285605765927874</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1048062262621929</v>
+        <v>0.1054633549463908</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1285451950442556</v>
+        <v>0.1285531210777991</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03378936557006279</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1299179616729276</v>
+        <v>0.04565019655962952</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03378936557006279</v>
+        <v>0.03392431924925758</v>
       </c>
       <c r="K212" t="n">
         <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07121273031866987</v>
+        <v>0.07013938075446863</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1294885179462523</v>
+        <v>0.1294411284872585</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1072686558526718</v>
+        <v>0.1098548710112741</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1294256415856546</v>
+        <v>0.1294336219070991</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03498403884895346</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1308017573305666</v>
+        <v>0.04564184730653895</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03498403884895346</v>
+        <v>0.03425973273081713</v>
       </c>
       <c r="K213" t="n">
         <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07000218007421949</v>
+        <v>0.06849067565740205</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1303693922179955</v>
+        <v>0.1303216803817297</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1077015247539638</v>
+        <v>0.105342866671322</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1303060881270536</v>
+        <v>0.1303141227363992</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0335522295664801</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1316855529882055</v>
+        <v>0.04563262787950726</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0335522295664801</v>
+        <v>0.03489142865882014</v>
       </c>
       <c r="K214" t="n">
         <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06875957072975947</v>
+        <v>0.07006715841892797</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1312502664897387</v>
+        <v>0.1312022322762008</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1043880266515651</v>
+        <v>0.1070463423921081</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1311865346684526</v>
+        <v>0.1311946235656991</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03400046631382274</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1325693486458445</v>
+        <v>0.04562253827853447</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03400046631382274</v>
+        <v>0.0349795564475445</v>
       </c>
       <c r="K215" t="n">
         <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07050337274966734</v>
+        <v>0.07073431884726447</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1321311407614819</v>
+        <v>0.132082784170672</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1105951999547774</v>
+        <v>0.1107307655097454</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1320669812098517</v>
+        <v>0.1320751243949991</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0336745454175084</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1334531443034835</v>
+        <v>0.04561157850362056</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0336745454175084</v>
+        <v>0.03355635280192258</v>
       </c>
       <c r="K216" t="n">
         <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07266132750533275</v>
+        <v>0.07185714168009533</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1330120150332252</v>
+        <v>0.1329633360651431</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1041125413859154</v>
+        <v>0.1042911305244433</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1329474277512507</v>
+        <v>0.1329556252242991</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03496956827298829</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1343369399611224</v>
+        <v>0.04559974855476554</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03496956827298829</v>
+        <v>0.03338205799022716</v>
       </c>
       <c r="K217" t="n">
         <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06973857422284832</v>
+        <v>0.0706221911997221</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1338928893049684</v>
+        <v>0.1338438879596143</v>
       </c>
       <c r="N217" t="n">
-        <v>0.103963014311008</v>
+        <v>0.107530765896369</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1338278742926497</v>
+        <v>0.1338361260535991</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03398181396408827</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1352207356187614</v>
+        <v>0.04558704843196939</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03398181396408827</v>
+        <v>0.03490108114122448</v>
       </c>
       <c r="K218" t="n">
         <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07182372260349615</v>
+        <v>0.07043173974888778</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1347737635767116</v>
+        <v>0.1347244398540854</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1046418700280448</v>
+        <v>0.1103639154712446</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1347083208340487</v>
+        <v>0.1347166268828991</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03355226498490983</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1361045312764003</v>
+        <v>0.04557347813523214</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03355226498490983</v>
+        <v>0.03453359340109589</v>
       </c>
       <c r="K219" t="n">
         <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06989053086726738</v>
+        <v>0.06935202714720171</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1356546378484548</v>
+        <v>0.1356049917485566</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1067077603033043</v>
+        <v>0.1105641695056067</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1355887673754477</v>
+        <v>0.1355971277121991</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03435452773909313</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1369883269340393</v>
+        <v>0.04555903766455377</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03435452773909313</v>
+        <v>0.03481360259288496</v>
       </c>
       <c r="K220" t="n">
         <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07020323765620406</v>
+        <v>0.06914341459104634</v>
       </c>
       <c r="M220" t="n">
-        <v>0.136535512120198</v>
+        <v>0.1364855436430277</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1054324845611748</v>
+        <v>0.1046379590979734</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1364692139168467</v>
+        <v>0.1364776285414991</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03404406158024624</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1378721225916783</v>
+        <v>0.04554372701993429</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03404406158024624</v>
+        <v>0.03515823567631662</v>
       </c>
       <c r="K221" t="n">
         <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07305116549343038</v>
+        <v>0.06842660295831171</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1374163863919412</v>
+        <v>0.1373660955374988</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1098239670640128</v>
+        <v>0.1054595227254512</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1373496604582457</v>
+        <v>0.1373581293707991</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03495894654897931</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1387559182493172</v>
+        <v>0.04552754620137369</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03495894654897931</v>
+        <v>0.03481380383135881</v>
       </c>
       <c r="K222" t="n">
         <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07035597786140785</v>
+        <v>0.07195881658677628</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1382972606636844</v>
+        <v>0.13824664743197</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1045905397965449</v>
+        <v>0.1051619734188033</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1382301069996447</v>
+        <v>0.1382386302000991</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0345759840725085</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1396397139069562</v>
+        <v>0.04551049520887198</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0345759840725085</v>
+        <v>0.03511709869863336</v>
       </c>
       <c r="K223" t="n">
         <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06916191140739908</v>
+        <v>0.0727030392085298</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1391781349354276</v>
+        <v>0.1391271993264411</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1078141951427964</v>
+        <v>0.1093878001426222</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1391105535410437</v>
+        <v>0.1391191310293991</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03464365640677827</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1405235095645952</v>
+        <v>0.04549257404242916</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03464365640677827</v>
+        <v>0.03394873537073026</v>
       </c>
       <c r="K224" t="n">
         <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06985032312581788</v>
+        <v>0.06949679588235275</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1400590092071709</v>
+        <v>0.1400077512209123</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1068434169020675</v>
+        <v>0.1088626745393404</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1399910000824428</v>
+        <v>0.1399996318586991</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03472797682630874</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1414073052222341</v>
+        <v>0.04547378270204522</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03472797682630874</v>
+        <v>0.03488322411185119</v>
       </c>
       <c r="K225" t="n">
         <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07045789847619424</v>
+        <v>0.07177387662814205</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1409398834789141</v>
+        <v>0.1408883031153834</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1078689954617438</v>
+        <v>0.1068935973136185</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1408714466238417</v>
+        <v>0.1408801326879991</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03406907573597075</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1422911008798731</v>
+        <v>0.04545412118772017</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03406907573597075</v>
+        <v>0.03386451929319442</v>
       </c>
       <c r="K226" t="n">
         <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07013716349496224</v>
+        <v>0.06917601669029957</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1418207577506573</v>
+        <v>0.1417688550098546</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1058552169032499</v>
+        <v>0.1073947910970189</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1417518931652408</v>
+        <v>0.1417606335172991</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03489580331294016</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1431748965375121</v>
+        <v>0.045433589499454</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03489580331294016</v>
+        <v>0.03477041880224441</v>
       </c>
       <c r="K227" t="n">
         <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0706691233741597</v>
+        <v>0.0727488759243248</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1427016320224005</v>
+        <v>0.1426494069043257</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1099797496714372</v>
+        <v>0.1076322965732308</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1426323397066398</v>
+        <v>0.1426411343465991</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03413454415584935</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.144058692195151</v>
+        <v>0.04541218763724672</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03413454415584935</v>
+        <v>0.03513163012479266</v>
       </c>
       <c r="K228" t="n">
         <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0696484960052377</v>
+        <v>0.07198504806613173</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1435825062941437</v>
+        <v>0.1435299587987969</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1072155871093254</v>
+        <v>0.1041934169202939</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1435127862480388</v>
+        <v>0.1435216351758991</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03406524603695081</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.14494248785279</v>
+        <v>0.04538991560109831</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03406524603695081</v>
+        <v>0.03458847680559446</v>
       </c>
       <c r="K229" t="n">
         <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07052131095580125</v>
+        <v>0.06898240868240599</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1444633805658869</v>
+        <v>0.144410510693268</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1067812355589517</v>
+        <v>0.1080513108462015</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1443932327894378</v>
+        <v>0.144402136005199</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03475595576031494</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.145826283510429</v>
+        <v>0.0453667733910088</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03475595576031494</v>
+        <v>0.03494539744094693</v>
       </c>
       <c r="K230" t="n">
         <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07201516792181728</v>
+        <v>0.06982102367954982</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1453442548376301</v>
+        <v>0.1452910625877392</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1039932311334289</v>
+        <v>0.1050380044231619</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1452736793308368</v>
+        <v>0.145282636834499</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03402720606286944</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1467100791680679</v>
+        <v>0.04534276100697818</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03402720606286944</v>
+        <v>0.0343913128147246</v>
       </c>
       <c r="K231" t="n">
         <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0715582026229237</v>
+        <v>0.06984035715614262</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1462251291093734</v>
+        <v>0.1461716144822103</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1051193578732503</v>
+        <v>0.1057134036926166</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1461541258722358</v>
+        <v>0.146163137663799</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03436174471811584</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1475938748257069</v>
+        <v>0.04531787844900644</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03436174471811584</v>
+        <v>0.03446337320870219</v>
       </c>
       <c r="K232" t="n">
         <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07195170033896683</v>
+        <v>0.0694273274652164</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1471060033811166</v>
+        <v>0.1470521663766815</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1048186403893491</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1470345724136348</v>
+        <v>0.147043638493099</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0348433063715085</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1484776704833458</v>
+        <v>0.0452921257170936</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0348433063715085</v>
+        <v>0.03417249552690617</v>
       </c>
       <c r="K233" t="n">
         <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06975500675318969</v>
+        <v>0.07037446001571143</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1479868776528598</v>
+        <v>0.1479327182711526</v>
       </c>
       <c r="N233" t="n">
-        <v>0.108287555603614</v>
+        <v>0.1056295847120105</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1479150189550339</v>
+        <v>0.147924139322399</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03454529836540252</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1493614661409848</v>
+        <v>0.04526550281123962</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03454529836540252</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K234" t="n">
         <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06971589623193547</v>
+        <v>0.07191040679239202</v>
       </c>
       <c r="M234" t="n">
-        <v>0.148867751924603</v>
+        <v>0.1488132701656238</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1066415813904054</v>
+        <v>0.1085960353811323</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1487954654964329</v>
+        <v>0.148804640151699</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03544334555354205</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1502452617986238</v>
+        <v>0.04523800973144455</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03544334555354205</v>
+        <v>0.03503663387300159</v>
       </c>
       <c r="K235" t="n">
         <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07284672495988381</v>
+        <v>0.06974452936300427</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1497486261963462</v>
+        <v>0.1496938220600949</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1071169580180347</v>
+        <v>0.1071168850752049</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1496759120378319</v>
+        <v>0.149685140980999</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03520562712564218</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1511290574562627</v>
+        <v>0.04520964647770835</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03520562712564218</v>
+        <v>0.03471919571095902</v>
       </c>
       <c r="K236" t="n">
         <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07017992529784772</v>
+        <v>0.07303819387923796</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1506295004680894</v>
+        <v>0.150574373954566</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1109613516458821</v>
+        <v>0.1083006821259004</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1505563585792309</v>
+        <v>0.150565641810299</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0347996500644589</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1520128531139017</v>
+        <v>0.04518041305003104</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0347996500644589</v>
+        <v>0.03547094123446048</v>
       </c>
       <c r="K237" t="n">
         <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0700175634676245</v>
+        <v>0.06967449704995266</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1515103747398326</v>
+        <v>0.1514549258490372</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1061943043241109</v>
+        <v>0.1098929807397701</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1514368051206299</v>
+        <v>0.151446142639599</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03384900937169635</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1528966487715407</v>
+        <v>0.04515030944841262</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03384900937169635</v>
+        <v>0.03540876910184181</v>
       </c>
       <c r="K238" t="n">
         <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07259240838117473</v>
+        <v>0.07274636978680751</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1523912490115759</v>
+        <v>0.1523354777435084</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1100616014281311</v>
+        <v>0.1064472919870786</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1523172516620289</v>
+        <v>0.152326643468899</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03399298242308402</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1537804444291796</v>
+        <v>0.04511933567285308</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03399298242308402</v>
+        <v>0.03388624201798195</v>
       </c>
       <c r="K239" t="n">
         <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07089703645371184</v>
+        <v>0.07099725580816313</v>
       </c>
       <c r="M239" t="n">
-        <v>0.153272123283319</v>
+        <v>0.1532160296379795</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1057723255517189</v>
+        <v>0.1078337498809164</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1531976982034279</v>
+        <v>0.153207144298199</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03499996916098271</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1546642400868186</v>
+        <v>0.04508749172335243</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03499996916098271</v>
+        <v>0.03476254886475386</v>
       </c>
       <c r="K240" t="n">
         <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07163059915553927</v>
+        <v>0.06949175464291132</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1541529975550623</v>
+        <v>0.1540965815324506</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1073956435529391</v>
+        <v>0.1092476084660534</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1540781447448269</v>
+        <v>0.154087645127499</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03439878838984502</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1555480357444576</v>
+        <v>0.04505477759991067</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03439878838984502</v>
+        <v>0.03397476797440019</v>
       </c>
       <c r="K241" t="n">
         <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07219651394959442</v>
+        <v>0.07043396573898766</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1550338718268055</v>
+        <v>0.1549771334269218</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1105638392975181</v>
+        <v>0.1095952902750882</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1549585912862259</v>
+        <v>0.154968145956799</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03444695195706605</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1564318314020965</v>
+        <v>0.04502119330252778</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03444695195706605</v>
+        <v>0.03411084092856526</v>
       </c>
       <c r="K242" t="n">
         <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07186374254229735</v>
+        <v>0.0729844893042956</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1559147460985487</v>
+        <v>0.1558576853213929</v>
       </c>
       <c r="N242" t="n">
-        <v>0.108437253494422</v>
+        <v>0.106947987379892</v>
       </c>
       <c r="O242" t="n">
-        <v>0.155839037827625</v>
+        <v>0.155848646786099</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03439788083714365</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1573156270597355</v>
+        <v>0.04498673883120379</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03439788083714365</v>
+        <v>0.03377017496013326</v>
       </c>
       <c r="K243" t="n">
         <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07287251477519949</v>
+        <v>0.07359332579692335</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1567956203702919</v>
+        <v>0.1567382372158641</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1076822274017693</v>
+        <v>0.1055761562986053</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1567194843690239</v>
+        <v>0.156729147615399</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03457383413672789</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1581994227173744</v>
+        <v>0.04495141418593868</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03457383413672789</v>
+        <v>0.03404605498372541</v>
       </c>
       <c r="K244" t="n">
         <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06947657351535258</v>
+        <v>0.07026435285971619</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1576764946420351</v>
+        <v>0.1576187891103352</v>
       </c>
       <c r="N244" t="n">
-        <v>0.111011551390471</v>
+        <v>0.1076464348344467</v>
       </c>
       <c r="O244" t="n">
-        <v>0.157599930910423</v>
+        <v>0.157609648444699</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03531296190097676</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1590832183750134</v>
+        <v>0.04491521936673246</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03531296190097676</v>
+        <v>0.03438997021483445</v>
       </c>
       <c r="K245" t="n">
         <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0724138663173628</v>
+        <v>0.0725016941145615</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1585573689137783</v>
+        <v>0.1584993410048064</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1112305901556738</v>
+        <v>0.1111358439029015</v>
       </c>
       <c r="O245" t="n">
-        <v>0.158480377451822</v>
+        <v>0.158490149273999</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03525237284473924</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1599670140326524</v>
+        <v>0.04487815437358512</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03525237284473924</v>
+        <v>0.03513357785918871</v>
       </c>
       <c r="K246" t="n">
         <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07123412132855067</v>
+        <v>0.06970310582679259</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1594382431855215</v>
+        <v>0.1593798928992775</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1099416770691954</v>
+        <v>0.1104770762032093</v>
       </c>
       <c r="O246" t="n">
-        <v>0.159360823993221</v>
+        <v>0.159370650103299</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03513374525923603</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1608508096902913</v>
+        <v>0.04484021920649667</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03513374525923603</v>
+        <v>0.03448397567204109</v>
       </c>
       <c r="K247" t="n">
         <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07324893280488742</v>
+        <v>0.07242716718476805</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1603191174572648</v>
+        <v>0.1602604447937487</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1083406401501796</v>
+        <v>0.1060385267520469</v>
       </c>
       <c r="O247" t="n">
-        <v>0.16024127053462</v>
+        <v>0.160251150932599</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03497775042426067</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1617346053479303</v>
+        <v>0.04480141386546711</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03497775042426067</v>
+        <v>0.03502313930635384</v>
       </c>
       <c r="K248" t="n">
         <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07309864371331734</v>
+        <v>0.06926003977252829</v>
       </c>
       <c r="M248" t="n">
-        <v>0.161199991729008</v>
+        <v>0.1611409966882198</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1112731825575177</v>
+        <v>0.112426868068126</v>
       </c>
       <c r="O248" t="n">
-        <v>0.161121717076019</v>
+        <v>0.1611316517618989</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03522611393343542</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1626184010055693</v>
+        <v>0.04476173835049643</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03522611393343542</v>
+        <v>0.03449323555373168</v>
       </c>
       <c r="K249" t="n">
         <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07247081294724159</v>
+        <v>0.07120603355377167</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1620808660007512</v>
+        <v>0.1620215485826909</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1104564633577323</v>
+        <v>0.1070978263649492</v>
       </c>
       <c r="O249" t="n">
-        <v>0.162002163617418</v>
+        <v>0.1620121525911989</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03404689979680894</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1635021966632082</v>
+        <v>0.04472119266158464</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03404689979680894</v>
+        <v>0.03549657770134772</v>
       </c>
       <c r="K250" t="n">
         <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07156580848833374</v>
+        <v>0.07155410857572983</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1629617402724944</v>
+        <v>0.1629021004771621</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1100996952570237</v>
+        <v>0.1074305655882851</v>
       </c>
       <c r="O250" t="n">
-        <v>0.162882610158817</v>
+        <v>0.1628926534204989</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03522892523066426</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1643859923208472</v>
+        <v>0.04467977679873173</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03522892523066426</v>
+        <v>0.03515727008352963</v>
       </c>
       <c r="K251" t="n">
         <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07366545002204147</v>
+        <v>0.06943778362710429</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1638426145442376</v>
+        <v>0.1637826523716333</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1086927494820638</v>
+        <v>0.1113132677009201</v>
       </c>
       <c r="O251" t="n">
-        <v>0.163763056700216</v>
+        <v>0.1637731542497989</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03399581909125057</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1652697879784861</v>
+        <v>0.04463749076193771</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03399581909125057</v>
+        <v>0.03505141662364268</v>
       </c>
       <c r="K252" t="n">
         <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07374519997880896</v>
+        <v>0.07319038574585368</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1647234888159808</v>
+        <v>0.1646632042661044</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1114844751669267</v>
+        <v>0.1066892982791323</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1646435032416151</v>
+        <v>0.1646536550790989</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03521392020008196</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1661535836361251</v>
+        <v>0.04459433455120257</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03521392020008196</v>
+        <v>0.03450260784874938</v>
       </c>
       <c r="K253" t="n">
         <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07404641360024869</v>
+        <v>0.07091658819491556</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1656043630877241</v>
+        <v>0.1655437561605756</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1070511161211097</v>
+        <v>0.105112421313523</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1655239497830141</v>
+        <v>0.1655341559083989</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03481650830842588</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1670373792937641</v>
+        <v>0.04455030816652632</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03481650830842588</v>
+        <v>0.03539389569104405</v>
       </c>
       <c r="K254" t="n">
         <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0736464007073801</v>
+        <v>0.07269219003546173</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1664852373594672</v>
+        <v>0.1664243080550467</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1056008766358904</v>
+        <v>0.1117480263508989</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1664043963244131</v>
+        <v>0.1664146567376989</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03499695727376216</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.167921174951403</v>
+        <v>0.04450541160790895</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03499695727376216</v>
+        <v>0.03548376992284356</v>
       </c>
       <c r="K255" t="n">
         <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07044886440923007</v>
+        <v>0.07109307523085506</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1673661116312105</v>
+        <v>0.1673048599495179</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1057186939627489</v>
+        <v>0.1105171597015503</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1672848428658121</v>
+        <v>0.1672951575669989</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03515046572631592</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.168804970609042</v>
+        <v>0.04445964487535049</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03515046572631592</v>
+        <v>0.03407389400019514</v>
       </c>
       <c r="K256" t="n">
         <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0700807463198802</v>
+        <v>0.07008056256078521</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1682469859029537</v>
+        <v>0.168185411843989</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1069222891697717</v>
+        <v>0.1107360500186994</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1681652894072111</v>
+        <v>0.1681756583962989</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03429479092472069</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.169688766266681</v>
+        <v>0.04441300796885089</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03429479092472069</v>
+        <v>0.03447036097225085</v>
       </c>
       <c r="K257" t="n">
         <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0709657606386587</v>
+        <v>0.07259736726194418</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1691278601746969</v>
+        <v>0.1690659637384601</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1073935181569466</v>
+        <v>0.1117460238504053</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1690457359486101</v>
+        <v>0.1690561592255989</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1705725619243199</v>
+        <v>0.04436550088841019</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03519184529800098</v>
       </c>
       <c r="K258" t="n">
         <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07009595540242852</v>
+        <v>0.07086179071202287</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1700087344464401</v>
+        <v>0.1699465156329313</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1118285886079805</v>
+        <v>0.1094818055833499</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1699261824900091</v>
+        <v>0.1699366600548989</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03459561579160418</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1714563575819589</v>
+        <v>0.04431712363402836</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03459561579160418</v>
+        <v>0.0339991931730656</v>
       </c>
       <c r="K259" t="n">
         <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07278805246276659</v>
+        <v>0.07085675305851738</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1708896087181833</v>
+        <v>0.1708270675274024</v>
       </c>
       <c r="N259" t="n">
-        <v>0.109395903042505</v>
+        <v>0.109488172536739</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1708066290314081</v>
+        <v>0.1708171608841989</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03412706154816757</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1723401532395978</v>
+        <v>0.04426787620570543</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03412706154816757</v>
+        <v>0.03548789189870551</v>
       </c>
       <c r="K260" t="n">
         <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07181651250831539</v>
+        <v>0.07265981041187486</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1717704829899265</v>
+        <v>0.1717076194218736</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1075565091043551</v>
+        <v>0.1096420320782712</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1716870755728071</v>
+        <v>0.1716976617134989</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03558979414780099</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1732239488972368</v>
+        <v>0.04421775860344138</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03558979414780099</v>
+        <v>0.03548130075954171</v>
       </c>
       <c r="K261" t="n">
         <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07008806779451479</v>
+        <v>0.07410718238334185</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1726513572616697</v>
+        <v>0.1725881713163447</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1083860397817598</v>
+        <v>0.1100119837685335</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1725675221142061</v>
+        <v>0.1725781625427989</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03460399004840095</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1741077445548758</v>
+        <v>0.04416677082723622</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03460399004840095</v>
+        <v>0.03474565328326863</v>
       </c>
       <c r="K262" t="n">
         <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07243361669231657</v>
+        <v>0.07142332416731889</v>
       </c>
       <c r="M262" t="n">
-        <v>0.173532231533413</v>
+        <v>0.1734687232108159</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1096112180518367</v>
+        <v>0.1112449054180296</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1734479686556052</v>
+        <v>0.1734586633720989</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03553910120440254</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1749915402125147</v>
+        <v>0.04411491287708994</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03553910120440254</v>
+        <v>0.03523333140563792</v>
       </c>
       <c r="K263" t="n">
         <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07190208054530811</v>
+        <v>0.07296815487311814</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1744131058051562</v>
+        <v>0.174349275105287</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1106474570628941</v>
+        <v>0.1090314474630756</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1743284151970041</v>
+        <v>0.1743391642013989</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03437959666602634</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1758753358701537</v>
+        <v>0.04406218475300255</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03437959666602634</v>
+        <v>0.03532703636341641</v>
       </c>
       <c r="K264" t="n">
         <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07068132681576689</v>
+        <v>0.07179180745543237</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1752939800768994</v>
+        <v>0.1752298269997581</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1101632355677905</v>
+        <v>0.1081958424009717</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1752088617384032</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1752196650306989</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04406218475300255</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04402963583086076</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04399795708266007</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04396714850840051</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04393721010808205</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04390814188170472</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0438799438292685</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04385261595077338</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0438261582462194</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0438005707156065</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04377585335893474</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04375200617620408</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04372902916741454</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04370692233256613</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04368568567165881</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04366531918469261</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04364582287166752</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04362719673258356</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0436094407674407</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04359255497623897</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04357653935897834</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04356139391565882</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04354711864628043</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04353371355084314</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04352117862934698</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04350951388179191</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04349871930817798</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04348879490850516</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04347974068277344</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04347155663098284</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04346424275313335</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04345779904922498</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04345222551925772</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04344752216323158</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04344368898114656</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04344072597300264</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04343863313879984</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04343741047853816</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04343705799221759</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04343757567983812</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04343896354139978</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04344122157690256</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04344434978634643</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04344834816973144</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04345321672705755</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04345895545832478</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04346556436353312</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04347304344268257</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04348139269577314</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04349061212280483</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04350070172377763</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04351166149869154</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04352349144754657</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04353619157034271</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04354976186707996</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04356420233775832</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04357951298237781</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0435956938009384</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04361274479344012</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04363066595988294</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04364945730026688</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04366911881459194</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0436896505028581</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04371105236506539</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04373332440121378</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04375646661130329</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04378047899533392</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04380536155330566</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04383111428521851</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04385773719107247</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04388523027086755</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04391359352460375</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04394282695228105</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04397293055389948</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04400390432945902</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04403574827895967</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04406846240240143</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04410204669978432</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0441365011711083</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04417182581637341</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04420802063557965</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04424508562872698</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04428302079581543</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.044321826136845</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04436150165181568</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04440204734072746</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04444346320358037</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04448574924037439</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04452890545110953</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04457293183578578</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04461782839440314</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04466359512696162</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04471023203346121</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04475773911390191</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04480611636828374</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04485536379660667</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04490548139887072</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04495646917507588</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04500832712522216</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07594219359856852</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04681992931505535</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07645951735320569</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04857880338080114</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07697275196534276</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05033767744654693</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07748177999003177</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05209655151229273</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0779864839823247</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05385542557803852</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07848674649727359</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0556142996437843</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07898245008993045</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05737317370953011</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0794734773153473</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0591320477752759</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07995971072857616</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06089092184102168</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08044103288466904</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06264979590676749</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08091732633867797</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06440866997251328</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08138847364565496</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06616754403825907</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08185435736065205</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06792641810400486</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08231486003872121</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.06968529216975065</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08276986423491446</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07144416623549645</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08321925250428389</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07320304030124225</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.08366290740188145</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07496191436698806</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08410071148275916</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07672078843273383</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08453254730196907</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07847966249847964</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.08495829741456318</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08023853656422543</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08537784437559351</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08199741062997121</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08579107074011208</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08375628469571701</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.08619785906317085</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08551515876146282</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.08659809189982196</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08727403282720859</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.08699165180511731</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.0890329068929544</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.08737842133410897</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09079178095870019</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.08775828304184896</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09255065502444598</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.08813111948338931</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09430952909019177</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.088496813213782</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09606840315593758</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08885524678807905</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09782727722168336</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.08921075555453625</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09958615128742916</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08956803611097014</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.101345025353175</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08992650110672717</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1031038994189207</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09028555695157542</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1048627734846665</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0906446100552831</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1066216475504123</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09100306682761819</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1083805216161581</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09136033367834884</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1101393956819039</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09171581701724318</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1118982697476497</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09206892325406932</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1136571438133955</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09241905879859533</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1154160178791413</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09276563006058938</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1171748919448871</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09310804344981949</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1189337660106329</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09344570537605384</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1206926400763787</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09377802224906051</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1224515141421245</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0941044004786076</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1242103882078703</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.09442424647446324</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1259692622736161</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.09473696664639553</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1277281363393619</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.09504196740417253</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1294870104051077</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.09533865515756243</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1312458844708534</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0956264363163333</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1330047585365992</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.09590471729025321</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1347636326023451</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0961729044890903</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1365225066680908</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.09643040432261268</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1382813807338366</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.09667662320058845</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1400402547995824</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09691096753278575</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1417991288653282</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.09713284372897263</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.143558002931074</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09734165819891724</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1453168769968198</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09753681735238767</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1470757510625656</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09771772759915201</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1488346251283114</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09788379534897843</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09803442701163498</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.152352373259803</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09816974094500533</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1541112473255488</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.09830046244977517</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1558701213912946</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09843026065008206</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1576289954570403</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09855898578380837</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1593878695227862</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09868648808883648</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1611467435885319</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09881261780304881</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1629056176542777</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09893722516432765</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1646644917200235</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09906016041055535</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1664233657857693</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09918127377961436</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1681822398515151</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09930041550938701</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1699411139172609</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09941743583775567</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1716999879830067</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09953218500260269</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1734588620487525</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09964451324181048</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1752177361144983</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09975427079326135</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1769766101802441</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09986130789483771</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1787354842459899</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09996547478442194</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1804943583117357</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1000666216998964</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1822532323774814</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1001645988791434</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1840121064432273</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1002592565600453</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1857709805089731</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1003504449804846</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1875298545747188</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1004380143783435</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1892887286404646</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1005218149915046</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1910476027062104</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.10060169705785</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1928064767719562</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1006775108152622</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.194565350837702</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1007491065016236</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1963242249034478</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1008163343548165</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1980830989691936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1008790446127233</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1998419730349394</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1009370875132264</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2016008471006852</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1009903132942081</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.203359721166431</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1010385721935508</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2051185952321768</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.1010817144491368</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2068774692979226</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.1011195902988486</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2086363433636683</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.1011520499805685</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2103952174294142</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.1011789437321789</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.21215409149516</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.101200121791562</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2139129655609057</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1012154343966004</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2156718396266515</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2174307136923973</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2191895877581432</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
